--- a/Code/files/tw_id_list.xlsx
+++ b/Code/files/tw_id_list.xlsx
@@ -19,3004 +19,3004 @@
     <t>ID</t>
   </si>
   <si>
-    <t>B137216543</t>
-  </si>
-  <si>
-    <t>Z212611679</t>
-  </si>
-  <si>
-    <t>H170349476</t>
-  </si>
-  <si>
-    <t>Y268696526</t>
-  </si>
-  <si>
-    <t>B109827661</t>
-  </si>
-  <si>
-    <t>B101704054</t>
-  </si>
-  <si>
-    <t>A165978262</t>
-  </si>
-  <si>
-    <t>C143293244</t>
-  </si>
-  <si>
-    <t>F164954174</t>
-  </si>
-  <si>
-    <t>J252803952</t>
-  </si>
-  <si>
-    <t>I176347364</t>
-  </si>
-  <si>
-    <t>A226067642</t>
-  </si>
-  <si>
-    <t>Z134365227</t>
-  </si>
-  <si>
-    <t>O161581999</t>
-  </si>
-  <si>
-    <t>K114357692</t>
-  </si>
-  <si>
-    <t>A130010891</t>
-  </si>
-  <si>
-    <t>D278728075</t>
-  </si>
-  <si>
-    <t>Z147675894</t>
-  </si>
-  <si>
-    <t>X245722719</t>
-  </si>
-  <si>
-    <t>D223324885</t>
-  </si>
-  <si>
-    <t>O102507211</t>
-  </si>
-  <si>
-    <t>V194649616</t>
-  </si>
-  <si>
-    <t>O200948912</t>
-  </si>
-  <si>
-    <t>M250700852</t>
-  </si>
-  <si>
-    <t>Z253664845</t>
-  </si>
-  <si>
-    <t>K176139207</t>
-  </si>
-  <si>
-    <t>J155283236</t>
-  </si>
-  <si>
-    <t>I255898064</t>
-  </si>
-  <si>
-    <t>G246731863</t>
-  </si>
-  <si>
-    <t>Q190745069</t>
-  </si>
-  <si>
-    <t>Z238514380</t>
-  </si>
-  <si>
-    <t>Z154346639</t>
-  </si>
-  <si>
-    <t>Z261011563</t>
-  </si>
-  <si>
-    <t>L278490474</t>
-  </si>
-  <si>
-    <t>T138000017</t>
-  </si>
-  <si>
-    <t>B137800956</t>
-  </si>
-  <si>
-    <t>R129120308</t>
-  </si>
-  <si>
-    <t>C270128063</t>
-  </si>
-  <si>
-    <t>I296097474</t>
-  </si>
-  <si>
-    <t>T165371072</t>
-  </si>
-  <si>
-    <t>B167997195</t>
-  </si>
-  <si>
-    <t>R266454150</t>
-  </si>
-  <si>
-    <t>N274430787</t>
-  </si>
-  <si>
-    <t>A285060361</t>
-  </si>
-  <si>
-    <t>V215545731</t>
-  </si>
-  <si>
-    <t>D245371879</t>
-  </si>
-  <si>
-    <t>G109974802</t>
-  </si>
-  <si>
-    <t>Y163842320</t>
-  </si>
-  <si>
-    <t>V159127382</t>
-  </si>
-  <si>
-    <t>T140739989</t>
-  </si>
-  <si>
-    <t>D247529579</t>
-  </si>
-  <si>
-    <t>Q243303300</t>
-  </si>
-  <si>
-    <t>D211411284</t>
-  </si>
-  <si>
-    <t>N134281557</t>
-  </si>
-  <si>
-    <t>D274378140</t>
-  </si>
-  <si>
-    <t>S208778754</t>
-  </si>
-  <si>
-    <t>H253063666</t>
-  </si>
-  <si>
-    <t>I293655849</t>
-  </si>
-  <si>
-    <t>D197590393</t>
-  </si>
-  <si>
-    <t>R166888627</t>
-  </si>
-  <si>
-    <t>Z254652330</t>
-  </si>
-  <si>
-    <t>D271481784</t>
-  </si>
-  <si>
-    <t>O282876520</t>
-  </si>
-  <si>
-    <t>M169714899</t>
-  </si>
-  <si>
-    <t>Z128513477</t>
-  </si>
-  <si>
-    <t>T109613644</t>
-  </si>
-  <si>
-    <t>Y205331664</t>
-  </si>
-  <si>
-    <t>R104370213</t>
-  </si>
-  <si>
-    <t>K138666965</t>
-  </si>
-  <si>
-    <t>E200016087</t>
-  </si>
-  <si>
-    <t>N275332904</t>
-  </si>
-  <si>
-    <t>N151194697</t>
-  </si>
-  <si>
-    <t>M283009002</t>
-  </si>
-  <si>
-    <t>B148362743</t>
-  </si>
-  <si>
-    <t>H117405826</t>
-  </si>
-  <si>
-    <t>I173772534</t>
-  </si>
-  <si>
-    <t>X192808653</t>
-  </si>
-  <si>
-    <t>J204136726</t>
-  </si>
-  <si>
-    <t>S244793560</t>
-  </si>
-  <si>
-    <t>T174204753</t>
-  </si>
-  <si>
-    <t>H196268154</t>
-  </si>
-  <si>
-    <t>N205609203</t>
-  </si>
-  <si>
-    <t>B111916128</t>
-  </si>
-  <si>
-    <t>C102376199</t>
-  </si>
-  <si>
-    <t>O267359457</t>
-  </si>
-  <si>
-    <t>O201631041</t>
-  </si>
-  <si>
-    <t>S228127093</t>
-  </si>
-  <si>
-    <t>Y136970564</t>
-  </si>
-  <si>
-    <t>N167931786</t>
-  </si>
-  <si>
-    <t>A226022830</t>
-  </si>
-  <si>
-    <t>T298511024</t>
-  </si>
-  <si>
-    <t>Y271885948</t>
-  </si>
-  <si>
-    <t>B106534418</t>
-  </si>
-  <si>
-    <t>Q172474058</t>
-  </si>
-  <si>
-    <t>C207559216</t>
-  </si>
-  <si>
-    <t>H129316647</t>
-  </si>
-  <si>
-    <t>V188566160</t>
-  </si>
-  <si>
-    <t>B113087193</t>
-  </si>
-  <si>
-    <t>J201466898</t>
-  </si>
-  <si>
-    <t>E271720634</t>
-  </si>
-  <si>
-    <t>P161796800</t>
-  </si>
-  <si>
-    <t>M182379503</t>
-  </si>
-  <si>
-    <t>G271584989</t>
-  </si>
-  <si>
-    <t>B193284114</t>
-  </si>
-  <si>
-    <t>P288836207</t>
-  </si>
-  <si>
-    <t>J181226207</t>
-  </si>
-  <si>
-    <t>X245148393</t>
-  </si>
-  <si>
-    <t>V167674470</t>
-  </si>
-  <si>
-    <t>U144236542</t>
-  </si>
-  <si>
-    <t>V176868239</t>
-  </si>
-  <si>
-    <t>D258290696</t>
-  </si>
-  <si>
-    <t>A177247889</t>
-  </si>
-  <si>
-    <t>R220421753</t>
-  </si>
-  <si>
-    <t>T177900850</t>
-  </si>
-  <si>
-    <t>Y199990726</t>
-  </si>
-  <si>
-    <t>A247952226</t>
-  </si>
-  <si>
-    <t>P198143020</t>
-  </si>
-  <si>
-    <t>K199855035</t>
-  </si>
-  <si>
-    <t>A184639011</t>
-  </si>
-  <si>
-    <t>Q165576421</t>
-  </si>
-  <si>
-    <t>Z293306466</t>
-  </si>
-  <si>
-    <t>A217255750</t>
-  </si>
-  <si>
-    <t>M258259898</t>
-  </si>
-  <si>
-    <t>H197612281</t>
-  </si>
-  <si>
-    <t>A166731996</t>
-  </si>
-  <si>
-    <t>M270954623</t>
-  </si>
-  <si>
-    <t>P140346471</t>
-  </si>
-  <si>
-    <t>F221228766</t>
-  </si>
-  <si>
-    <t>Z223255776</t>
-  </si>
-  <si>
-    <t>I150991362</t>
-  </si>
-  <si>
-    <t>N221966730</t>
-  </si>
-  <si>
-    <t>A146584937</t>
-  </si>
-  <si>
-    <t>R182012445</t>
-  </si>
-  <si>
-    <t>Q277102344</t>
-  </si>
-  <si>
-    <t>U132843797</t>
-  </si>
-  <si>
-    <t>M162018732</t>
-  </si>
-  <si>
-    <t>R179310263</t>
-  </si>
-  <si>
-    <t>N198656512</t>
-  </si>
-  <si>
-    <t>U278138137</t>
-  </si>
-  <si>
-    <t>C173844740</t>
-  </si>
-  <si>
-    <t>R253297507</t>
-  </si>
-  <si>
-    <t>N183046764</t>
-  </si>
-  <si>
-    <t>R296685618</t>
-  </si>
-  <si>
-    <t>F152624572</t>
-  </si>
-  <si>
-    <t>P112677523</t>
-  </si>
-  <si>
-    <t>P281866592</t>
-  </si>
-  <si>
-    <t>A138034188</t>
-  </si>
-  <si>
-    <t>D208558134</t>
-  </si>
-  <si>
-    <t>A280078514</t>
-  </si>
-  <si>
-    <t>R292316523</t>
-  </si>
-  <si>
-    <t>K123179964</t>
-  </si>
-  <si>
-    <t>D256432203</t>
-  </si>
-  <si>
-    <t>T199465949</t>
-  </si>
-  <si>
-    <t>N177239440</t>
-  </si>
-  <si>
-    <t>F191001219</t>
-  </si>
-  <si>
-    <t>K139260225</t>
-  </si>
-  <si>
-    <t>T112486759</t>
-  </si>
-  <si>
-    <t>V278062906</t>
-  </si>
-  <si>
-    <t>Y142968178</t>
-  </si>
-  <si>
-    <t>O138563589</t>
-  </si>
-  <si>
-    <t>N210576891</t>
-  </si>
-  <si>
-    <t>R177264919</t>
-  </si>
-  <si>
-    <t>T118012753</t>
-  </si>
-  <si>
-    <t>U113203335</t>
-  </si>
-  <si>
-    <t>L247831356</t>
-  </si>
-  <si>
-    <t>Z256409640</t>
-  </si>
-  <si>
-    <t>A202784075</t>
-  </si>
-  <si>
-    <t>G194101799</t>
-  </si>
-  <si>
-    <t>X168066132</t>
-  </si>
-  <si>
-    <t>G184571378</t>
-  </si>
-  <si>
-    <t>V229983650</t>
-  </si>
-  <si>
-    <t>F256755552</t>
-  </si>
-  <si>
-    <t>D165013689</t>
-  </si>
-  <si>
-    <t>D102569408</t>
-  </si>
-  <si>
-    <t>A141679137</t>
-  </si>
-  <si>
-    <t>B172438407</t>
-  </si>
-  <si>
-    <t>J237262848</t>
-  </si>
-  <si>
-    <t>I106318246</t>
-  </si>
-  <si>
-    <t>F255128640</t>
-  </si>
-  <si>
-    <t>H211169761</t>
-  </si>
-  <si>
-    <t>U231008241</t>
-  </si>
-  <si>
-    <t>W181470707</t>
-  </si>
-  <si>
-    <t>K155632472</t>
-  </si>
-  <si>
-    <t>F168113624</t>
-  </si>
-  <si>
-    <t>Q276044709</t>
-  </si>
-  <si>
-    <t>Y222822244</t>
-  </si>
-  <si>
-    <t>R244315618</t>
-  </si>
-  <si>
-    <t>T132464606</t>
-  </si>
-  <si>
-    <t>D254284665</t>
-  </si>
-  <si>
-    <t>L248266273</t>
-  </si>
-  <si>
-    <t>J262604167</t>
-  </si>
-  <si>
-    <t>B225607803</t>
-  </si>
-  <si>
-    <t>Y119864478</t>
-  </si>
-  <si>
-    <t>N239892329</t>
-  </si>
-  <si>
-    <t>C191099841</t>
-  </si>
-  <si>
-    <t>E191491490</t>
-  </si>
-  <si>
-    <t>Z158798737</t>
-  </si>
-  <si>
-    <t>N131291113</t>
-  </si>
-  <si>
-    <t>O191846207</t>
-  </si>
-  <si>
-    <t>M293202793</t>
-  </si>
-  <si>
-    <t>L187863723</t>
-  </si>
-  <si>
-    <t>R279246493</t>
-  </si>
-  <si>
-    <t>G196497225</t>
-  </si>
-  <si>
-    <t>M212557277</t>
-  </si>
-  <si>
-    <t>I220792988</t>
-  </si>
-  <si>
-    <t>Y237979161</t>
-  </si>
-  <si>
-    <t>R230858940</t>
-  </si>
-  <si>
-    <t>N103931273</t>
-  </si>
-  <si>
-    <t>P168145810</t>
-  </si>
-  <si>
-    <t>P106615777</t>
-  </si>
-  <si>
-    <t>N272485524</t>
-  </si>
-  <si>
-    <t>J265219464</t>
-  </si>
-  <si>
-    <t>O154453597</t>
-  </si>
-  <si>
-    <t>B182525275</t>
-  </si>
-  <si>
-    <t>F281335460</t>
-  </si>
-  <si>
-    <t>F165886755</t>
-  </si>
-  <si>
-    <t>I180479075</t>
-  </si>
-  <si>
-    <t>I142034134</t>
-  </si>
-  <si>
-    <t>Y261028575</t>
-  </si>
-  <si>
-    <t>X178400431</t>
-  </si>
-  <si>
-    <t>G106933023</t>
-  </si>
-  <si>
-    <t>R238942654</t>
-  </si>
-  <si>
-    <t>L219902395</t>
-  </si>
-  <si>
-    <t>L294345778</t>
-  </si>
-  <si>
-    <t>T289618565</t>
-  </si>
-  <si>
-    <t>L234698963</t>
-  </si>
-  <si>
-    <t>U187343751</t>
-  </si>
-  <si>
-    <t>G230588552</t>
-  </si>
-  <si>
-    <t>L216768382</t>
-  </si>
-  <si>
-    <t>U146113891</t>
-  </si>
-  <si>
-    <t>M183009313</t>
-  </si>
-  <si>
-    <t>P247327172</t>
-  </si>
-  <si>
-    <t>D162668315</t>
-  </si>
-  <si>
-    <t>W220300755</t>
-  </si>
-  <si>
-    <t>P296769135</t>
-  </si>
-  <si>
-    <t>O151722157</t>
-  </si>
-  <si>
-    <t>R199395342</t>
-  </si>
-  <si>
-    <t>C135825787</t>
-  </si>
-  <si>
-    <t>H119749287</t>
-  </si>
-  <si>
-    <t>G175436884</t>
-  </si>
-  <si>
-    <t>V167662569</t>
-  </si>
-  <si>
-    <t>L144140767</t>
-  </si>
-  <si>
-    <t>Q279545703</t>
-  </si>
-  <si>
-    <t>G248457235</t>
-  </si>
-  <si>
-    <t>L287084939</t>
-  </si>
-  <si>
-    <t>U197534504</t>
-  </si>
-  <si>
-    <t>W276997408</t>
-  </si>
-  <si>
-    <t>H277915756</t>
-  </si>
-  <si>
-    <t>O279510148</t>
-  </si>
-  <si>
-    <t>G286244321</t>
-  </si>
-  <si>
-    <t>G143465619</t>
-  </si>
-  <si>
-    <t>K197669835</t>
-  </si>
-  <si>
-    <t>A299167391</t>
-  </si>
-  <si>
-    <t>C176599279</t>
-  </si>
-  <si>
-    <t>W102922751</t>
-  </si>
-  <si>
-    <t>X180502057</t>
-  </si>
-  <si>
-    <t>U190802009</t>
-  </si>
-  <si>
-    <t>I143294116</t>
-  </si>
-  <si>
-    <t>U255449048</t>
-  </si>
-  <si>
-    <t>P233715262</t>
-  </si>
-  <si>
-    <t>U128327824</t>
-  </si>
-  <si>
-    <t>T261901174</t>
-  </si>
-  <si>
-    <t>H219491911</t>
-  </si>
-  <si>
-    <t>T176630288</t>
-  </si>
-  <si>
-    <t>N194167872</t>
-  </si>
-  <si>
-    <t>J174631823</t>
-  </si>
-  <si>
-    <t>D106712558</t>
-  </si>
-  <si>
-    <t>Z298240481</t>
-  </si>
-  <si>
-    <t>T185417971</t>
-  </si>
-  <si>
-    <t>R222784584</t>
-  </si>
-  <si>
-    <t>A246077091</t>
-  </si>
-  <si>
-    <t>Q249861589</t>
-  </si>
-  <si>
-    <t>H107872904</t>
-  </si>
-  <si>
-    <t>O295856194</t>
-  </si>
-  <si>
-    <t>R288714959</t>
-  </si>
-  <si>
-    <t>V272120454</t>
-  </si>
-  <si>
-    <t>Z147490239</t>
-  </si>
-  <si>
-    <t>O126638455</t>
-  </si>
-  <si>
-    <t>W239082564</t>
-  </si>
-  <si>
-    <t>O126100527</t>
-  </si>
-  <si>
-    <t>S229718749</t>
-  </si>
-  <si>
-    <t>F165767479</t>
-  </si>
-  <si>
-    <t>Z153131134</t>
-  </si>
-  <si>
-    <t>A202140788</t>
-  </si>
-  <si>
-    <t>W224406561</t>
-  </si>
-  <si>
-    <t>M227786584</t>
-  </si>
-  <si>
-    <t>I293663029</t>
-  </si>
-  <si>
-    <t>U156982166</t>
-  </si>
-  <si>
-    <t>F294433537</t>
-  </si>
-  <si>
-    <t>C219039176</t>
-  </si>
-  <si>
-    <t>L273638358</t>
-  </si>
-  <si>
-    <t>S279488616</t>
-  </si>
-  <si>
-    <t>V113006720</t>
-  </si>
-  <si>
-    <t>S177809080</t>
-  </si>
-  <si>
-    <t>L272843248</t>
-  </si>
-  <si>
-    <t>M264474490</t>
-  </si>
-  <si>
-    <t>M152578990</t>
-  </si>
-  <si>
-    <t>B164904714</t>
-  </si>
-  <si>
-    <t>S101213212</t>
-  </si>
-  <si>
-    <t>P266382184</t>
-  </si>
-  <si>
-    <t>J191306703</t>
-  </si>
-  <si>
-    <t>O199167730</t>
-  </si>
-  <si>
-    <t>E269514546</t>
-  </si>
-  <si>
-    <t>Y134209133</t>
-  </si>
-  <si>
-    <t>X130760429</t>
-  </si>
-  <si>
-    <t>U155305889</t>
-  </si>
-  <si>
-    <t>U170993401</t>
-  </si>
-  <si>
-    <t>J184508411</t>
-  </si>
-  <si>
-    <t>T255734103</t>
-  </si>
-  <si>
-    <t>Y255792224</t>
-  </si>
-  <si>
-    <t>C116117180</t>
-  </si>
-  <si>
-    <t>V223008685</t>
-  </si>
-  <si>
-    <t>I113946429</t>
-  </si>
-  <si>
-    <t>G212663810</t>
-  </si>
-  <si>
-    <t>I172279392</t>
-  </si>
-  <si>
-    <t>C133098184</t>
-  </si>
-  <si>
-    <t>P293522612</t>
-  </si>
-  <si>
-    <t>R265951294</t>
-  </si>
-  <si>
-    <t>U155438712</t>
-  </si>
-  <si>
-    <t>H218281555</t>
-  </si>
-  <si>
-    <t>N204433992</t>
-  </si>
-  <si>
-    <t>C283586506</t>
-  </si>
-  <si>
-    <t>A267300362</t>
-  </si>
-  <si>
-    <t>L133909705</t>
-  </si>
-  <si>
-    <t>K278032007</t>
-  </si>
-  <si>
-    <t>X102841722</t>
-  </si>
-  <si>
-    <t>F119084074</t>
-  </si>
-  <si>
-    <t>T106320624</t>
-  </si>
-  <si>
-    <t>Y205578925</t>
-  </si>
-  <si>
-    <t>K144004499</t>
-  </si>
-  <si>
-    <t>W199287350</t>
-  </si>
-  <si>
-    <t>S153224736</t>
-  </si>
-  <si>
-    <t>I221808805</t>
-  </si>
-  <si>
-    <t>N121921417</t>
-  </si>
-  <si>
-    <t>W178803078</t>
-  </si>
-  <si>
-    <t>T130383242</t>
-  </si>
-  <si>
-    <t>F113578737</t>
-  </si>
-  <si>
-    <t>T184109505</t>
-  </si>
-  <si>
-    <t>E267240909</t>
-  </si>
-  <si>
-    <t>I209799441</t>
-  </si>
-  <si>
-    <t>Q208426897</t>
-  </si>
-  <si>
-    <t>S295212783</t>
-  </si>
-  <si>
-    <t>X123445499</t>
-  </si>
-  <si>
-    <t>Q293316991</t>
-  </si>
-  <si>
-    <t>G266068049</t>
-  </si>
-  <si>
-    <t>N141187555</t>
-  </si>
-  <si>
-    <t>E230645318</t>
-  </si>
-  <si>
-    <t>J196702894</t>
-  </si>
-  <si>
-    <t>Y201071229</t>
-  </si>
-  <si>
-    <t>N295621439</t>
-  </si>
-  <si>
-    <t>J181630130</t>
-  </si>
-  <si>
-    <t>K273363490</t>
-  </si>
-  <si>
-    <t>F282470860</t>
-  </si>
-  <si>
-    <t>Q207210386</t>
-  </si>
-  <si>
-    <t>V214749404</t>
-  </si>
-  <si>
-    <t>R155402979</t>
-  </si>
-  <si>
-    <t>D183136998</t>
-  </si>
-  <si>
-    <t>C170804146</t>
-  </si>
-  <si>
-    <t>T161017086</t>
-  </si>
-  <si>
-    <t>X144503709</t>
-  </si>
-  <si>
-    <t>Z293942426</t>
-  </si>
-  <si>
-    <t>C276513940</t>
-  </si>
-  <si>
-    <t>Y296249215</t>
-  </si>
-  <si>
-    <t>S117980680</t>
-  </si>
-  <si>
-    <t>A299159095</t>
-  </si>
-  <si>
-    <t>X208392293</t>
-  </si>
-  <si>
-    <t>K144900889</t>
-  </si>
-  <si>
-    <t>W256187826</t>
-  </si>
-  <si>
-    <t>U218297302</t>
-  </si>
-  <si>
-    <t>D200851647</t>
-  </si>
-  <si>
-    <t>N297610032</t>
-  </si>
-  <si>
-    <t>Q120888997</t>
-  </si>
-  <si>
-    <t>W213830597</t>
-  </si>
-  <si>
-    <t>S192236378</t>
-  </si>
-  <si>
-    <t>M153745413</t>
-  </si>
-  <si>
-    <t>B186413230</t>
-  </si>
-  <si>
-    <t>F206529600</t>
-  </si>
-  <si>
-    <t>G214459798</t>
-  </si>
-  <si>
-    <t>A234337162</t>
-  </si>
-  <si>
-    <t>C169576131</t>
-  </si>
-  <si>
-    <t>Z228144867</t>
-  </si>
-  <si>
-    <t>H100718774</t>
-  </si>
-  <si>
-    <t>Y195319798</t>
-  </si>
-  <si>
-    <t>K124616162</t>
-  </si>
-  <si>
-    <t>S256298758</t>
-  </si>
-  <si>
-    <t>E126607022</t>
-  </si>
-  <si>
-    <t>I227620065</t>
-  </si>
-  <si>
-    <t>C240475317</t>
-  </si>
-  <si>
-    <t>H254563496</t>
-  </si>
-  <si>
-    <t>A206190980</t>
-  </si>
-  <si>
-    <t>E139359786</t>
-  </si>
-  <si>
-    <t>D114022474</t>
-  </si>
-  <si>
-    <t>Z105222357</t>
-  </si>
-  <si>
-    <t>G277691554</t>
-  </si>
-  <si>
-    <t>R213185788</t>
-  </si>
-  <si>
-    <t>V141549356</t>
-  </si>
-  <si>
-    <t>I144460267</t>
-  </si>
-  <si>
-    <t>K246927148</t>
-  </si>
-  <si>
-    <t>N221750652</t>
-  </si>
-  <si>
-    <t>O111186551</t>
-  </si>
-  <si>
-    <t>L177377774</t>
-  </si>
-  <si>
-    <t>F235836169</t>
-  </si>
-  <si>
-    <t>S111256907</t>
-  </si>
-  <si>
-    <t>I270566134</t>
-  </si>
-  <si>
-    <t>U259349058</t>
-  </si>
-  <si>
-    <t>G256983566</t>
-  </si>
-  <si>
-    <t>Q245062777</t>
-  </si>
-  <si>
-    <t>G100313483</t>
-  </si>
-  <si>
-    <t>O194574422</t>
-  </si>
-  <si>
-    <t>S198428503</t>
-  </si>
-  <si>
-    <t>F197902233</t>
-  </si>
-  <si>
-    <t>M115823114</t>
-  </si>
-  <si>
-    <t>L104152541</t>
-  </si>
-  <si>
-    <t>D170406552</t>
-  </si>
-  <si>
-    <t>V244706720</t>
-  </si>
-  <si>
-    <t>G179341742</t>
-  </si>
-  <si>
-    <t>E239334932</t>
-  </si>
-  <si>
-    <t>H107366741</t>
-  </si>
-  <si>
-    <t>T139297327</t>
-  </si>
-  <si>
-    <t>S137605955</t>
-  </si>
-  <si>
-    <t>D132276701</t>
-  </si>
-  <si>
-    <t>B174836867</t>
-  </si>
-  <si>
-    <t>E226790480</t>
-  </si>
-  <si>
-    <t>L210986359</t>
-  </si>
-  <si>
-    <t>Y108321195</t>
-  </si>
-  <si>
-    <t>U293473717</t>
-  </si>
-  <si>
-    <t>P100309770</t>
-  </si>
-  <si>
-    <t>I232465192</t>
-  </si>
-  <si>
-    <t>L105064095</t>
-  </si>
-  <si>
-    <t>L103790458</t>
-  </si>
-  <si>
-    <t>P149125487</t>
-  </si>
-  <si>
-    <t>M231704983</t>
-  </si>
-  <si>
-    <t>C295335788</t>
-  </si>
-  <si>
-    <t>V151093469</t>
-  </si>
-  <si>
-    <t>T116666995</t>
-  </si>
-  <si>
-    <t>L251781707</t>
-  </si>
-  <si>
-    <t>Y187083921</t>
-  </si>
-  <si>
-    <t>E218318063</t>
-  </si>
-  <si>
-    <t>B246644137</t>
-  </si>
-  <si>
-    <t>A153646880</t>
-  </si>
-  <si>
-    <t>F257714797</t>
-  </si>
-  <si>
-    <t>N209237632</t>
-  </si>
-  <si>
-    <t>A272905708</t>
-  </si>
-  <si>
-    <t>B248462802</t>
-  </si>
-  <si>
-    <t>P115621872</t>
-  </si>
-  <si>
-    <t>G207851004</t>
-  </si>
-  <si>
-    <t>X190925820</t>
-  </si>
-  <si>
-    <t>V221340162</t>
-  </si>
-  <si>
-    <t>P184073775</t>
-  </si>
-  <si>
-    <t>A250079923</t>
-  </si>
-  <si>
-    <t>C256534676</t>
-  </si>
-  <si>
-    <t>C141583441</t>
-  </si>
-  <si>
-    <t>U179346177</t>
-  </si>
-  <si>
-    <t>D283604546</t>
-  </si>
-  <si>
-    <t>Z181976705</t>
-  </si>
-  <si>
-    <t>V266559672</t>
-  </si>
-  <si>
-    <t>P165383845</t>
-  </si>
-  <si>
-    <t>U116986199</t>
-  </si>
-  <si>
-    <t>F284689072</t>
-  </si>
-  <si>
-    <t>G228320700</t>
-  </si>
-  <si>
-    <t>V108044745</t>
-  </si>
-  <si>
-    <t>W284141956</t>
-  </si>
-  <si>
-    <t>J154375057</t>
-  </si>
-  <si>
-    <t>G205525216</t>
-  </si>
-  <si>
-    <t>K228899221</t>
-  </si>
-  <si>
-    <t>I183002781</t>
-  </si>
-  <si>
-    <t>Y292881342</t>
-  </si>
-  <si>
-    <t>D278132668</t>
-  </si>
-  <si>
-    <t>L285223796</t>
-  </si>
-  <si>
-    <t>E132708861</t>
-  </si>
-  <si>
-    <t>W129702066</t>
-  </si>
-  <si>
-    <t>H148127553</t>
-  </si>
-  <si>
-    <t>K219373750</t>
-  </si>
-  <si>
-    <t>S201646964</t>
-  </si>
-  <si>
-    <t>Z190781616</t>
-  </si>
-  <si>
-    <t>U259102724</t>
-  </si>
-  <si>
-    <t>F175565585</t>
-  </si>
-  <si>
-    <t>H203735377</t>
-  </si>
-  <si>
-    <t>N144726750</t>
-  </si>
-  <si>
-    <t>U189168792</t>
-  </si>
-  <si>
-    <t>J132543588</t>
-  </si>
-  <si>
-    <t>N121873863</t>
-  </si>
-  <si>
-    <t>T237330867</t>
-  </si>
-  <si>
-    <t>A106517505</t>
-  </si>
-  <si>
-    <t>L204317455</t>
-  </si>
-  <si>
-    <t>D278525798</t>
-  </si>
-  <si>
-    <t>O227686420</t>
-  </si>
-  <si>
-    <t>J212259729</t>
-  </si>
-  <si>
-    <t>T119155686</t>
-  </si>
-  <si>
-    <t>K118396793</t>
-  </si>
-  <si>
-    <t>H128010173</t>
-  </si>
-  <si>
-    <t>A207472785</t>
-  </si>
-  <si>
-    <t>Y171941476</t>
-  </si>
-  <si>
-    <t>N164142161</t>
-  </si>
-  <si>
-    <t>L109815267</t>
-  </si>
-  <si>
-    <t>J216884282</t>
-  </si>
-  <si>
-    <t>P114099698</t>
-  </si>
-  <si>
-    <t>D107703277</t>
-  </si>
-  <si>
-    <t>M132280659</t>
-  </si>
-  <si>
-    <t>Q143802691</t>
-  </si>
-  <si>
-    <t>U177421882</t>
-  </si>
-  <si>
-    <t>R185438174</t>
-  </si>
-  <si>
-    <t>P215316163</t>
-  </si>
-  <si>
-    <t>A133570330</t>
-  </si>
-  <si>
-    <t>F243385484</t>
-  </si>
-  <si>
-    <t>H171329110</t>
-  </si>
-  <si>
-    <t>A182832845</t>
-  </si>
-  <si>
-    <t>U267513455</t>
-  </si>
-  <si>
-    <t>O285041270</t>
-  </si>
-  <si>
-    <t>E131027401</t>
-  </si>
-  <si>
-    <t>I217469121</t>
-  </si>
-  <si>
-    <t>Z226717200</t>
-  </si>
-  <si>
-    <t>H129589837</t>
-  </si>
-  <si>
-    <t>W296154383</t>
-  </si>
-  <si>
-    <t>O116819028</t>
-  </si>
-  <si>
-    <t>A240231911</t>
-  </si>
-  <si>
-    <t>U211930608</t>
-  </si>
-  <si>
-    <t>T295061090</t>
-  </si>
-  <si>
-    <t>M226546817</t>
-  </si>
-  <si>
-    <t>Q155934902</t>
-  </si>
-  <si>
-    <t>M230374598</t>
-  </si>
-  <si>
-    <t>K153371163</t>
-  </si>
-  <si>
-    <t>J218154492</t>
-  </si>
-  <si>
-    <t>T192673998</t>
-  </si>
-  <si>
-    <t>S149707222</t>
-  </si>
-  <si>
-    <t>M247033977</t>
-  </si>
-  <si>
-    <t>K118622243</t>
-  </si>
-  <si>
-    <t>H149745662</t>
-  </si>
-  <si>
-    <t>N231885591</t>
-  </si>
-  <si>
-    <t>A222239759</t>
-  </si>
-  <si>
-    <t>C199116143</t>
-  </si>
-  <si>
-    <t>C144678376</t>
-  </si>
-  <si>
-    <t>D219283844</t>
-  </si>
-  <si>
-    <t>B273716591</t>
-  </si>
-  <si>
-    <t>T200321610</t>
-  </si>
-  <si>
-    <t>I295302145</t>
-  </si>
-  <si>
-    <t>C142236030</t>
-  </si>
-  <si>
-    <t>J253770247</t>
-  </si>
-  <si>
-    <t>S235669159</t>
-  </si>
-  <si>
-    <t>V220143721</t>
-  </si>
-  <si>
-    <t>Q241469921</t>
-  </si>
-  <si>
-    <t>V168293148</t>
-  </si>
-  <si>
-    <t>F101997777</t>
-  </si>
-  <si>
-    <t>N153538464</t>
-  </si>
-  <si>
-    <t>E282568953</t>
-  </si>
-  <si>
-    <t>D206807698</t>
-  </si>
-  <si>
-    <t>Y205836066</t>
-  </si>
-  <si>
-    <t>M240066807</t>
-  </si>
-  <si>
-    <t>S265380769</t>
-  </si>
-  <si>
-    <t>G286869971</t>
-  </si>
-  <si>
-    <t>C200288143</t>
-  </si>
-  <si>
-    <t>D102840944</t>
-  </si>
-  <si>
-    <t>D154707125</t>
-  </si>
-  <si>
-    <t>Y172280052</t>
-  </si>
-  <si>
-    <t>D166869461</t>
-  </si>
-  <si>
-    <t>J261922086</t>
-  </si>
-  <si>
-    <t>H204865427</t>
-  </si>
-  <si>
-    <t>H166845036</t>
-  </si>
-  <si>
-    <t>B226236924</t>
-  </si>
-  <si>
-    <t>L161458526</t>
-  </si>
-  <si>
-    <t>O100401092</t>
-  </si>
-  <si>
-    <t>S118306768</t>
-  </si>
-  <si>
-    <t>O176504815</t>
-  </si>
-  <si>
-    <t>Y114984046</t>
-  </si>
-  <si>
-    <t>W129053862</t>
-  </si>
-  <si>
-    <t>N186252675</t>
-  </si>
-  <si>
-    <t>B184547822</t>
-  </si>
-  <si>
-    <t>T187888192</t>
-  </si>
-  <si>
-    <t>U244607623</t>
-  </si>
-  <si>
-    <t>F257825884</t>
-  </si>
-  <si>
-    <t>X233478868</t>
-  </si>
-  <si>
-    <t>D227389784</t>
-  </si>
-  <si>
-    <t>I116430651</t>
-  </si>
-  <si>
-    <t>V133850331</t>
-  </si>
-  <si>
-    <t>K213264234</t>
-  </si>
-  <si>
-    <t>H208410455</t>
-  </si>
-  <si>
-    <t>V249531090</t>
-  </si>
-  <si>
-    <t>E114702307</t>
-  </si>
-  <si>
-    <t>U242948587</t>
-  </si>
-  <si>
-    <t>E156191699</t>
-  </si>
-  <si>
-    <t>C265974660</t>
-  </si>
-  <si>
-    <t>B231964588</t>
-  </si>
-  <si>
-    <t>C169336119</t>
-  </si>
-  <si>
-    <t>N264199519</t>
-  </si>
-  <si>
-    <t>J148902084</t>
-  </si>
-  <si>
-    <t>T132611178</t>
-  </si>
-  <si>
-    <t>N128983139</t>
-  </si>
-  <si>
-    <t>U224874520</t>
-  </si>
-  <si>
-    <t>V277369406</t>
-  </si>
-  <si>
-    <t>N151075017</t>
-  </si>
-  <si>
-    <t>L253773712</t>
-  </si>
-  <si>
-    <t>T156552836</t>
-  </si>
-  <si>
-    <t>T185044405</t>
-  </si>
-  <si>
-    <t>L171327681</t>
-  </si>
-  <si>
-    <t>E216791617</t>
-  </si>
-  <si>
-    <t>O294277028</t>
-  </si>
-  <si>
-    <t>M241291322</t>
-  </si>
-  <si>
-    <t>T279297474</t>
-  </si>
-  <si>
-    <t>P268733714</t>
-  </si>
-  <si>
-    <t>Z210105383</t>
-  </si>
-  <si>
-    <t>M240722640</t>
-  </si>
-  <si>
-    <t>M148014830</t>
-  </si>
-  <si>
-    <t>H144136332</t>
-  </si>
-  <si>
-    <t>O203356970</t>
-  </si>
-  <si>
-    <t>S252613357</t>
-  </si>
-  <si>
-    <t>I243949010</t>
-  </si>
-  <si>
-    <t>Z114748926</t>
-  </si>
-  <si>
-    <t>B271016516</t>
-  </si>
-  <si>
-    <t>J238181502</t>
-  </si>
-  <si>
-    <t>T291744865</t>
-  </si>
-  <si>
-    <t>R247228434</t>
-  </si>
-  <si>
-    <t>K224566301</t>
-  </si>
-  <si>
-    <t>X178066822</t>
-  </si>
-  <si>
-    <t>W177762667</t>
-  </si>
-  <si>
-    <t>O223328516</t>
-  </si>
-  <si>
-    <t>Q139021142</t>
-  </si>
-  <si>
-    <t>P171389844</t>
-  </si>
-  <si>
-    <t>J108092803</t>
-  </si>
-  <si>
-    <t>T295426019</t>
-  </si>
-  <si>
-    <t>C176445892</t>
-  </si>
-  <si>
-    <t>K201840313</t>
-  </si>
-  <si>
-    <t>M244178013</t>
-  </si>
-  <si>
-    <t>M280868198</t>
-  </si>
-  <si>
-    <t>C123618156</t>
-  </si>
-  <si>
-    <t>S153511501</t>
-  </si>
-  <si>
-    <t>Q135911458</t>
-  </si>
-  <si>
-    <t>S118401562</t>
-  </si>
-  <si>
-    <t>D155764348</t>
-  </si>
-  <si>
-    <t>M196291772</t>
-  </si>
-  <si>
-    <t>H232406901</t>
-  </si>
-  <si>
-    <t>F289690039</t>
-  </si>
-  <si>
-    <t>K235690523</t>
-  </si>
-  <si>
-    <t>W221039611</t>
-  </si>
-  <si>
-    <t>U181730901</t>
-  </si>
-  <si>
-    <t>S134712962</t>
-  </si>
-  <si>
-    <t>G251175822</t>
-  </si>
-  <si>
-    <t>W296088053</t>
-  </si>
-  <si>
-    <t>C222083599</t>
-  </si>
-  <si>
-    <t>A125914060</t>
-  </si>
-  <si>
-    <t>T255826964</t>
-  </si>
-  <si>
-    <t>F126489945</t>
-  </si>
-  <si>
-    <t>B244607127</t>
-  </si>
-  <si>
-    <t>E264269831</t>
-  </si>
-  <si>
-    <t>Y154108360</t>
-  </si>
-  <si>
-    <t>I124604129</t>
-  </si>
-  <si>
-    <t>A285522473</t>
-  </si>
-  <si>
-    <t>W271123382</t>
-  </si>
-  <si>
-    <t>K277648118</t>
-  </si>
-  <si>
-    <t>O190318482</t>
-  </si>
-  <si>
-    <t>H245591580</t>
-  </si>
-  <si>
-    <t>T286583574</t>
-  </si>
-  <si>
-    <t>H185104685</t>
-  </si>
-  <si>
-    <t>Z149471965</t>
-  </si>
-  <si>
-    <t>H203428019</t>
-  </si>
-  <si>
-    <t>C240423617</t>
-  </si>
-  <si>
-    <t>F122521497</t>
-  </si>
-  <si>
-    <t>L208698424</t>
-  </si>
-  <si>
-    <t>V185254065</t>
-  </si>
-  <si>
-    <t>C158849141</t>
-  </si>
-  <si>
-    <t>I138739457</t>
-  </si>
-  <si>
-    <t>Y165634531</t>
-  </si>
-  <si>
-    <t>G151470151</t>
-  </si>
-  <si>
-    <t>Q100303635</t>
-  </si>
-  <si>
-    <t>R188692796</t>
-  </si>
-  <si>
-    <t>W236074793</t>
-  </si>
-  <si>
-    <t>N100926118</t>
-  </si>
-  <si>
-    <t>H263714303</t>
-  </si>
-  <si>
-    <t>O284458379</t>
-  </si>
-  <si>
-    <t>F101523295</t>
-  </si>
-  <si>
-    <t>D291507234</t>
-  </si>
-  <si>
-    <t>N181410202</t>
-  </si>
-  <si>
-    <t>N151931010</t>
-  </si>
-  <si>
-    <t>Y175759545</t>
-  </si>
-  <si>
-    <t>U227186161</t>
-  </si>
-  <si>
-    <t>G133993188</t>
-  </si>
-  <si>
-    <t>J246201479</t>
-  </si>
-  <si>
-    <t>W122718299</t>
-  </si>
-  <si>
-    <t>Q283177357</t>
-  </si>
-  <si>
-    <t>U199539534</t>
-  </si>
-  <si>
-    <t>E261580673</t>
-  </si>
-  <si>
-    <t>E192350005</t>
-  </si>
-  <si>
-    <t>N268626375</t>
-  </si>
-  <si>
-    <t>N189385822</t>
-  </si>
-  <si>
-    <t>G254199315</t>
-  </si>
-  <si>
-    <t>E207109147</t>
-  </si>
-  <si>
-    <t>W268223533</t>
-  </si>
-  <si>
-    <t>Z107375066</t>
-  </si>
-  <si>
-    <t>P125591774</t>
-  </si>
-  <si>
-    <t>U144112636</t>
-  </si>
-  <si>
-    <t>R245125136</t>
-  </si>
-  <si>
-    <t>G155561626</t>
-  </si>
-  <si>
-    <t>H219556837</t>
-  </si>
-  <si>
-    <t>G105333449</t>
-  </si>
-  <si>
-    <t>I131990649</t>
-  </si>
-  <si>
-    <t>A251119248</t>
-  </si>
-  <si>
-    <t>T298021301</t>
-  </si>
-  <si>
-    <t>H285929700</t>
-  </si>
-  <si>
-    <t>P125464398</t>
-  </si>
-  <si>
-    <t>C225370697</t>
-  </si>
-  <si>
-    <t>Y173740968</t>
-  </si>
-  <si>
-    <t>Q273897904</t>
-  </si>
-  <si>
-    <t>X218379828</t>
-  </si>
-  <si>
-    <t>X272630142</t>
-  </si>
-  <si>
-    <t>M272345248</t>
-  </si>
-  <si>
-    <t>O251683488</t>
-  </si>
-  <si>
-    <t>V275604797</t>
-  </si>
-  <si>
-    <t>F248117333</t>
-  </si>
-  <si>
-    <t>N149475169</t>
-  </si>
-  <si>
-    <t>K118928633</t>
-  </si>
-  <si>
-    <t>K149018313</t>
-  </si>
-  <si>
-    <t>J287427568</t>
-  </si>
-  <si>
-    <t>W299301017</t>
-  </si>
-  <si>
-    <t>P170083450</t>
-  </si>
-  <si>
-    <t>P162702768</t>
-  </si>
-  <si>
-    <t>Y166302298</t>
-  </si>
-  <si>
-    <t>Z244071903</t>
-  </si>
-  <si>
-    <t>M162563778</t>
-  </si>
-  <si>
-    <t>Q100786303</t>
-  </si>
-  <si>
-    <t>R108242443</t>
-  </si>
-  <si>
-    <t>L272519201</t>
-  </si>
-  <si>
-    <t>G226165185</t>
-  </si>
-  <si>
-    <t>K112470629</t>
-  </si>
-  <si>
-    <t>Y120068026</t>
-  </si>
-  <si>
-    <t>N281266046</t>
-  </si>
-  <si>
-    <t>D124146703</t>
-  </si>
-  <si>
-    <t>U286726258</t>
-  </si>
-  <si>
-    <t>G119458217</t>
-  </si>
-  <si>
-    <t>J181445006</t>
-  </si>
-  <si>
-    <t>V288034683</t>
-  </si>
-  <si>
-    <t>M254077327</t>
-  </si>
-  <si>
-    <t>S120629963</t>
-  </si>
-  <si>
-    <t>X257109913</t>
-  </si>
-  <si>
-    <t>W224359478</t>
-  </si>
-  <si>
-    <t>E273590616</t>
-  </si>
-  <si>
-    <t>T186153298</t>
-  </si>
-  <si>
-    <t>B234423682</t>
-  </si>
-  <si>
-    <t>F260838519</t>
-  </si>
-  <si>
-    <t>N194520020</t>
-  </si>
-  <si>
-    <t>F205545002</t>
-  </si>
-  <si>
-    <t>J135152043</t>
-  </si>
-  <si>
-    <t>M273393211</t>
-  </si>
-  <si>
-    <t>Y240022395</t>
-  </si>
-  <si>
-    <t>E227103767</t>
-  </si>
-  <si>
-    <t>I117104767</t>
-  </si>
-  <si>
-    <t>F282698617</t>
-  </si>
-  <si>
-    <t>Y202358592</t>
-  </si>
-  <si>
-    <t>Q102942952</t>
-  </si>
-  <si>
-    <t>S153382617</t>
-  </si>
-  <si>
-    <t>D286360783</t>
-  </si>
-  <si>
-    <t>B152634663</t>
-  </si>
-  <si>
-    <t>V201605788</t>
-  </si>
-  <si>
-    <t>J206007460</t>
-  </si>
-  <si>
-    <t>K255642318</t>
-  </si>
-  <si>
-    <t>G196333002</t>
-  </si>
-  <si>
-    <t>J132429001</t>
-  </si>
-  <si>
-    <t>V275051581</t>
-  </si>
-  <si>
-    <t>N102492526</t>
-  </si>
-  <si>
-    <t>H149149491</t>
-  </si>
-  <si>
-    <t>U210460456</t>
-  </si>
-  <si>
-    <t>I286787612</t>
-  </si>
-  <si>
-    <t>H141108470</t>
-  </si>
-  <si>
-    <t>Q130558200</t>
-  </si>
-  <si>
-    <t>U152169756</t>
-  </si>
-  <si>
-    <t>D121078539</t>
-  </si>
-  <si>
-    <t>D288233332</t>
-  </si>
-  <si>
-    <t>W134126345</t>
-  </si>
-  <si>
-    <t>J174304394</t>
-  </si>
-  <si>
-    <t>M233225305</t>
-  </si>
-  <si>
-    <t>C164400874</t>
-  </si>
-  <si>
-    <t>D102617481</t>
-  </si>
-  <si>
-    <t>T139135037</t>
-  </si>
-  <si>
-    <t>Y246165004</t>
-  </si>
-  <si>
-    <t>G155977231</t>
-  </si>
-  <si>
-    <t>P172385813</t>
-  </si>
-  <si>
-    <t>L248058146</t>
-  </si>
-  <si>
-    <t>N291367783</t>
-  </si>
-  <si>
-    <t>P272276295</t>
-  </si>
-  <si>
-    <t>Z108968403</t>
-  </si>
-  <si>
-    <t>J157471190</t>
-  </si>
-  <si>
-    <t>H136414701</t>
-  </si>
-  <si>
-    <t>O212178322</t>
-  </si>
-  <si>
-    <t>Y290455166</t>
-  </si>
-  <si>
-    <t>C247775650</t>
-  </si>
-  <si>
-    <t>M153198914</t>
-  </si>
-  <si>
-    <t>G200167394</t>
-  </si>
-  <si>
-    <t>L152349336</t>
-  </si>
-  <si>
-    <t>W163993485</t>
-  </si>
-  <si>
-    <t>Y125911924</t>
-  </si>
-  <si>
-    <t>J171379406</t>
-  </si>
-  <si>
-    <t>F103027456</t>
-  </si>
-  <si>
-    <t>H112605979</t>
-  </si>
-  <si>
-    <t>O179261479</t>
-  </si>
-  <si>
-    <t>D147714496</t>
-  </si>
-  <si>
-    <t>A187692903</t>
-  </si>
-  <si>
-    <t>H197903205</t>
-  </si>
-  <si>
-    <t>Q279768644</t>
-  </si>
-  <si>
-    <t>H107846182</t>
-  </si>
-  <si>
-    <t>J157842500</t>
-  </si>
-  <si>
-    <t>W260250618</t>
-  </si>
-  <si>
-    <t>L261331095</t>
-  </si>
-  <si>
-    <t>L289717093</t>
-  </si>
-  <si>
-    <t>Z220140983</t>
-  </si>
-  <si>
-    <t>Z278059537</t>
-  </si>
-  <si>
-    <t>O225495985</t>
-  </si>
-  <si>
-    <t>G133629281</t>
-  </si>
-  <si>
-    <t>Q294878276</t>
-  </si>
-  <si>
-    <t>K187413894</t>
-  </si>
-  <si>
-    <t>R240264021</t>
-  </si>
-  <si>
-    <t>B195467273</t>
-  </si>
-  <si>
-    <t>B248099087</t>
-  </si>
-  <si>
-    <t>E145951205</t>
-  </si>
-  <si>
-    <t>O285960538</t>
-  </si>
-  <si>
-    <t>V280509898</t>
-  </si>
-  <si>
-    <t>H237102702</t>
-  </si>
-  <si>
-    <t>X164350035</t>
-  </si>
-  <si>
-    <t>E142014376</t>
-  </si>
-  <si>
-    <t>F245518418</t>
-  </si>
-  <si>
-    <t>Z238956771</t>
-  </si>
-  <si>
-    <t>Y105430660</t>
-  </si>
-  <si>
-    <t>L258495857</t>
-  </si>
-  <si>
-    <t>D229442579</t>
-  </si>
-  <si>
-    <t>U215736786</t>
-  </si>
-  <si>
-    <t>Q250468067</t>
-  </si>
-  <si>
-    <t>U174542919</t>
-  </si>
-  <si>
-    <t>J155303368</t>
-  </si>
-  <si>
-    <t>D200179659</t>
-  </si>
-  <si>
-    <t>J155407807</t>
-  </si>
-  <si>
-    <t>N296695102</t>
-  </si>
-  <si>
-    <t>C243733334</t>
-  </si>
-  <si>
-    <t>A287873473</t>
-  </si>
-  <si>
-    <t>B291664796</t>
-  </si>
-  <si>
-    <t>L183532647</t>
-  </si>
-  <si>
-    <t>U156221015</t>
-  </si>
-  <si>
-    <t>E261735927</t>
-  </si>
-  <si>
-    <t>V209259939</t>
-  </si>
-  <si>
-    <t>P176503273</t>
-  </si>
-  <si>
-    <t>Y160789013</t>
-  </si>
-  <si>
-    <t>G259669867</t>
-  </si>
-  <si>
-    <t>H172536495</t>
-  </si>
-  <si>
-    <t>L191364966</t>
-  </si>
-  <si>
-    <t>J182644816</t>
-  </si>
-  <si>
-    <t>C214921268</t>
-  </si>
-  <si>
-    <t>T123315056</t>
-  </si>
-  <si>
-    <t>U129468084</t>
-  </si>
-  <si>
-    <t>Q172466181</t>
-  </si>
-  <si>
-    <t>G209539636</t>
-  </si>
-  <si>
-    <t>P264832896</t>
-  </si>
-  <si>
-    <t>H178783121</t>
-  </si>
-  <si>
-    <t>U274450776</t>
-  </si>
-  <si>
-    <t>U107567506</t>
-  </si>
-  <si>
-    <t>U272975832</t>
-  </si>
-  <si>
-    <t>K222082900</t>
-  </si>
-  <si>
-    <t>O291127852</t>
-  </si>
-  <si>
-    <t>G200851104</t>
-  </si>
-  <si>
-    <t>Q151078243</t>
-  </si>
-  <si>
-    <t>X280463628</t>
-  </si>
-  <si>
-    <t>Z225242428</t>
-  </si>
-  <si>
-    <t>A255075265</t>
-  </si>
-  <si>
-    <t>E254606519</t>
-  </si>
-  <si>
-    <t>P261178920</t>
-  </si>
-  <si>
-    <t>I112100009</t>
-  </si>
-  <si>
-    <t>U294955441</t>
-  </si>
-  <si>
-    <t>F124018537</t>
-  </si>
-  <si>
-    <t>K128079665</t>
-  </si>
-  <si>
-    <t>Y214589730</t>
-  </si>
-  <si>
-    <t>J204668732</t>
-  </si>
-  <si>
-    <t>X170663141</t>
-  </si>
-  <si>
-    <t>F184789235</t>
-  </si>
-  <si>
-    <t>L265619983</t>
-  </si>
-  <si>
-    <t>R255546423</t>
-  </si>
-  <si>
-    <t>P131494544</t>
-  </si>
-  <si>
-    <t>T116045174</t>
-  </si>
-  <si>
-    <t>D282148530</t>
-  </si>
-  <si>
-    <t>H281020420</t>
-  </si>
-  <si>
-    <t>T266242456</t>
-  </si>
-  <si>
-    <t>A173047598</t>
-  </si>
-  <si>
-    <t>Q216596764</t>
-  </si>
-  <si>
-    <t>G134900187</t>
-  </si>
-  <si>
-    <t>T198756414</t>
-  </si>
-  <si>
-    <t>K266097641</t>
-  </si>
-  <si>
-    <t>P274079061</t>
-  </si>
-  <si>
-    <t>G141539376</t>
-  </si>
-  <si>
-    <t>Z246458015</t>
-  </si>
-  <si>
-    <t>Z101237398</t>
-  </si>
-  <si>
-    <t>K265597464</t>
-  </si>
-  <si>
-    <t>H203367208</t>
-  </si>
-  <si>
-    <t>J260219017</t>
-  </si>
-  <si>
-    <t>T265851844</t>
-  </si>
-  <si>
-    <t>Z159239353</t>
-  </si>
-  <si>
-    <t>K116799698</t>
-  </si>
-  <si>
-    <t>Z104039910</t>
-  </si>
-  <si>
-    <t>V172438600</t>
-  </si>
-  <si>
-    <t>Q246347699</t>
-  </si>
-  <si>
-    <t>C104735221</t>
-  </si>
-  <si>
-    <t>V118916936</t>
-  </si>
-  <si>
-    <t>Y172644734</t>
-  </si>
-  <si>
-    <t>M296834788</t>
-  </si>
-  <si>
-    <t>O219685115</t>
-  </si>
-  <si>
-    <t>F192725941</t>
-  </si>
-  <si>
-    <t>K149300263</t>
-  </si>
-  <si>
-    <t>X100237622</t>
-  </si>
-  <si>
-    <t>M273614591</t>
-  </si>
-  <si>
-    <t>B119408454</t>
-  </si>
-  <si>
-    <t>B210225979</t>
-  </si>
-  <si>
-    <t>B108367326</t>
-  </si>
-  <si>
-    <t>J159017505</t>
-  </si>
-  <si>
-    <t>W284022527</t>
-  </si>
-  <si>
-    <t>N206609314</t>
-  </si>
-  <si>
-    <t>K161156938</t>
-  </si>
-  <si>
-    <t>G204513187</t>
-  </si>
-  <si>
-    <t>W255722698</t>
-  </si>
-  <si>
-    <t>O256723594</t>
-  </si>
-  <si>
-    <t>R183811835</t>
-  </si>
-  <si>
-    <t>K170319390</t>
-  </si>
-  <si>
-    <t>I286553787</t>
-  </si>
-  <si>
-    <t>N116492749</t>
-  </si>
-  <si>
-    <t>E212874740</t>
-  </si>
-  <si>
-    <t>T163749894</t>
-  </si>
-  <si>
-    <t>G292737695</t>
-  </si>
-  <si>
-    <t>N250737190</t>
-  </si>
-  <si>
-    <t>B205174545</t>
-  </si>
-  <si>
-    <t>I186562999</t>
-  </si>
-  <si>
-    <t>Y237188062</t>
-  </si>
-  <si>
-    <t>I152773433</t>
-  </si>
-  <si>
-    <t>E295124965</t>
-  </si>
-  <si>
-    <t>M110572023</t>
-  </si>
-  <si>
-    <t>Y115204654</t>
-  </si>
-  <si>
-    <t>S204500376</t>
-  </si>
-  <si>
-    <t>M164288036</t>
-  </si>
-  <si>
-    <t>X109885375</t>
-  </si>
-  <si>
-    <t>K147733522</t>
-  </si>
-  <si>
-    <t>F118573009</t>
-  </si>
-  <si>
-    <t>E121767470</t>
-  </si>
-  <si>
-    <t>T238781242</t>
-  </si>
-  <si>
-    <t>V281804034</t>
-  </si>
-  <si>
-    <t>Q197607580</t>
-  </si>
-  <si>
-    <t>H118350222</t>
-  </si>
-  <si>
-    <t>W103276785</t>
-  </si>
-  <si>
-    <t>S131983950</t>
-  </si>
-  <si>
-    <t>M176198707</t>
-  </si>
-  <si>
-    <t>A253139935</t>
-  </si>
-  <si>
-    <t>W122806963</t>
-  </si>
-  <si>
-    <t>N220367091</t>
-  </si>
-  <si>
-    <t>F185611021</t>
-  </si>
-  <si>
-    <t>G244104957</t>
-  </si>
-  <si>
-    <t>J100895848</t>
-  </si>
-  <si>
-    <t>S113822838</t>
-  </si>
-  <si>
-    <t>I120246176</t>
-  </si>
-  <si>
-    <t>T173564483</t>
-  </si>
-  <si>
-    <t>H176612512</t>
-  </si>
-  <si>
-    <t>Z277919025</t>
-  </si>
-  <si>
-    <t>N227189915</t>
-  </si>
-  <si>
-    <t>Y228837641</t>
-  </si>
-  <si>
-    <t>G123348493</t>
-  </si>
-  <si>
-    <t>D230370646</t>
-  </si>
-  <si>
-    <t>U129108565</t>
-  </si>
-  <si>
-    <t>N220645429</t>
-  </si>
-  <si>
-    <t>Z220896800</t>
-  </si>
-  <si>
-    <t>Z280510803</t>
-  </si>
-  <si>
-    <t>U250736797</t>
-  </si>
-  <si>
-    <t>R216298442</t>
-  </si>
-  <si>
-    <t>P283680723</t>
-  </si>
-  <si>
-    <t>J252771348</t>
-  </si>
-  <si>
-    <t>Q249647641</t>
-  </si>
-  <si>
-    <t>C104510608</t>
-  </si>
-  <si>
-    <t>E134772118</t>
-  </si>
-  <si>
-    <t>O162175655</t>
-  </si>
-  <si>
-    <t>Z189420577</t>
-  </si>
-  <si>
-    <t>D263730312</t>
-  </si>
-  <si>
-    <t>F257221297</t>
-  </si>
-  <si>
-    <t>L163859441</t>
-  </si>
-  <si>
-    <t>N248953513</t>
-  </si>
-  <si>
-    <t>K258185598</t>
-  </si>
-  <si>
-    <t>L232218038</t>
-  </si>
-  <si>
-    <t>J149660370</t>
-  </si>
-  <si>
-    <t>Y251122851</t>
-  </si>
-  <si>
-    <t>Y162821167</t>
-  </si>
-  <si>
-    <t>E226720595</t>
-  </si>
-  <si>
-    <t>R177899047</t>
-  </si>
-  <si>
-    <t>Z170609113</t>
-  </si>
-  <si>
-    <t>G266971532</t>
-  </si>
-  <si>
-    <t>S104026560</t>
-  </si>
-  <si>
-    <t>Y188449129</t>
-  </si>
-  <si>
-    <t>C203194291</t>
-  </si>
-  <si>
-    <t>G296454875</t>
-  </si>
-  <si>
-    <t>S288920449</t>
-  </si>
-  <si>
-    <t>W167368022</t>
-  </si>
-  <si>
-    <t>Z211997296</t>
-  </si>
-  <si>
-    <t>L264070197</t>
-  </si>
-  <si>
-    <t>R280251320</t>
-  </si>
-  <si>
-    <t>K213563894</t>
-  </si>
-  <si>
-    <t>I114476373</t>
-  </si>
-  <si>
-    <t>K283282662</t>
-  </si>
-  <si>
-    <t>X101603782</t>
-  </si>
-  <si>
-    <t>K185121642</t>
-  </si>
-  <si>
-    <t>Q196691711</t>
-  </si>
-  <si>
-    <t>F253599730</t>
-  </si>
-  <si>
-    <t>Y192208681</t>
-  </si>
-  <si>
-    <t>S280457458</t>
-  </si>
-  <si>
-    <t>D139849097</t>
+    <t>L151193027</t>
+  </si>
+  <si>
+    <t>T150233467</t>
+  </si>
+  <si>
+    <t>K253698545</t>
+  </si>
+  <si>
+    <t>B285593517</t>
+  </si>
+  <si>
+    <t>O254858487</t>
+  </si>
+  <si>
+    <t>M176013745</t>
+  </si>
+  <si>
+    <t>J155673678</t>
+  </si>
+  <si>
+    <t>D228478735</t>
+  </si>
+  <si>
+    <t>P113243165</t>
+  </si>
+  <si>
+    <t>I110136181</t>
+  </si>
+  <si>
+    <t>M240601646</t>
+  </si>
+  <si>
+    <t>K187656273</t>
+  </si>
+  <si>
+    <t>F286499558</t>
+  </si>
+  <si>
+    <t>C216627227</t>
+  </si>
+  <si>
+    <t>W118715477</t>
+  </si>
+  <si>
+    <t>A173814071</t>
+  </si>
+  <si>
+    <t>V225907190</t>
+  </si>
+  <si>
+    <t>D111892447</t>
+  </si>
+  <si>
+    <t>O299271320</t>
+  </si>
+  <si>
+    <t>V110284482</t>
+  </si>
+  <si>
+    <t>I209710806</t>
+  </si>
+  <si>
+    <t>G298528538</t>
+  </si>
+  <si>
+    <t>I273658344</t>
+  </si>
+  <si>
+    <t>D131057971</t>
+  </si>
+  <si>
+    <t>C239497843</t>
+  </si>
+  <si>
+    <t>Q224727586</t>
+  </si>
+  <si>
+    <t>P103819326</t>
+  </si>
+  <si>
+    <t>A288979429</t>
+  </si>
+  <si>
+    <t>M201707850</t>
+  </si>
+  <si>
+    <t>N195872470</t>
+  </si>
+  <si>
+    <t>H224128461</t>
+  </si>
+  <si>
+    <t>W248923023</t>
+  </si>
+  <si>
+    <t>H171459695</t>
+  </si>
+  <si>
+    <t>P243537690</t>
+  </si>
+  <si>
+    <t>M185181658</t>
+  </si>
+  <si>
+    <t>P188911418</t>
+  </si>
+  <si>
+    <t>V181335694</t>
+  </si>
+  <si>
+    <t>X219874411</t>
+  </si>
+  <si>
+    <t>E149674423</t>
+  </si>
+  <si>
+    <t>R268128733</t>
+  </si>
+  <si>
+    <t>U121939648</t>
+  </si>
+  <si>
+    <t>P195213249</t>
+  </si>
+  <si>
+    <t>G229550113</t>
+  </si>
+  <si>
+    <t>F115420976</t>
+  </si>
+  <si>
+    <t>C120386586</t>
+  </si>
+  <si>
+    <t>H149432964</t>
+  </si>
+  <si>
+    <t>S222507113</t>
+  </si>
+  <si>
+    <t>I284636069</t>
+  </si>
+  <si>
+    <t>D261148218</t>
+  </si>
+  <si>
+    <t>F169560252</t>
+  </si>
+  <si>
+    <t>Q100531077</t>
+  </si>
+  <si>
+    <t>T218882953</t>
+  </si>
+  <si>
+    <t>E220238525</t>
+  </si>
+  <si>
+    <t>U225640037</t>
+  </si>
+  <si>
+    <t>Q250352895</t>
+  </si>
+  <si>
+    <t>I123735214</t>
+  </si>
+  <si>
+    <t>V169046161</t>
+  </si>
+  <si>
+    <t>I139030435</t>
+  </si>
+  <si>
+    <t>X136014480</t>
+  </si>
+  <si>
+    <t>D185761104</t>
+  </si>
+  <si>
+    <t>N103059114</t>
+  </si>
+  <si>
+    <t>L194852909</t>
+  </si>
+  <si>
+    <t>K209309695</t>
+  </si>
+  <si>
+    <t>A268670907</t>
+  </si>
+  <si>
+    <t>B102186470</t>
+  </si>
+  <si>
+    <t>L249115364</t>
+  </si>
+  <si>
+    <t>F264576976</t>
+  </si>
+  <si>
+    <t>D241396567</t>
+  </si>
+  <si>
+    <t>J291146656</t>
+  </si>
+  <si>
+    <t>O278977032</t>
+  </si>
+  <si>
+    <t>Z109666597</t>
+  </si>
+  <si>
+    <t>R233909515</t>
+  </si>
+  <si>
+    <t>I237876220</t>
+  </si>
+  <si>
+    <t>T219351288</t>
+  </si>
+  <si>
+    <t>Q171774951</t>
+  </si>
+  <si>
+    <t>A158467334</t>
+  </si>
+  <si>
+    <t>C102455702</t>
+  </si>
+  <si>
+    <t>J285595992</t>
+  </si>
+  <si>
+    <t>T104983623</t>
+  </si>
+  <si>
+    <t>K297269971</t>
+  </si>
+  <si>
+    <t>B110870614</t>
+  </si>
+  <si>
+    <t>U203956607</t>
+  </si>
+  <si>
+    <t>C182004727</t>
+  </si>
+  <si>
+    <t>T154981697</t>
+  </si>
+  <si>
+    <t>S113973616</t>
+  </si>
+  <si>
+    <t>K204658273</t>
+  </si>
+  <si>
+    <t>I107110780</t>
+  </si>
+  <si>
+    <t>G218221987</t>
+  </si>
+  <si>
+    <t>E170682133</t>
+  </si>
+  <si>
+    <t>F249559424</t>
+  </si>
+  <si>
+    <t>Q239230009</t>
+  </si>
+  <si>
+    <t>F206006942</t>
+  </si>
+  <si>
+    <t>J243490090</t>
+  </si>
+  <si>
+    <t>N231790971</t>
+  </si>
+  <si>
+    <t>G123206703</t>
+  </si>
+  <si>
+    <t>X169411211</t>
+  </si>
+  <si>
+    <t>W221682443</t>
+  </si>
+  <si>
+    <t>N175455848</t>
+  </si>
+  <si>
+    <t>Z224382138</t>
+  </si>
+  <si>
+    <t>H101057976</t>
+  </si>
+  <si>
+    <t>L210018221</t>
+  </si>
+  <si>
+    <t>P217890180</t>
+  </si>
+  <si>
+    <t>W276966216</t>
+  </si>
+  <si>
+    <t>J251820726</t>
+  </si>
+  <si>
+    <t>V272579475</t>
+  </si>
+  <si>
+    <t>D271913772</t>
+  </si>
+  <si>
+    <t>W186285002</t>
+  </si>
+  <si>
+    <t>E136506845</t>
+  </si>
+  <si>
+    <t>D149363988</t>
+  </si>
+  <si>
+    <t>G108712595</t>
+  </si>
+  <si>
+    <t>B157292076</t>
+  </si>
+  <si>
+    <t>C274022491</t>
+  </si>
+  <si>
+    <t>D103812631</t>
+  </si>
+  <si>
+    <t>E152081754</t>
+  </si>
+  <si>
+    <t>G102921652</t>
+  </si>
+  <si>
+    <t>A166386759</t>
+  </si>
+  <si>
+    <t>X222256258</t>
+  </si>
+  <si>
+    <t>F237934355</t>
+  </si>
+  <si>
+    <t>F242457114</t>
+  </si>
+  <si>
+    <t>C274699296</t>
+  </si>
+  <si>
+    <t>R130909084</t>
+  </si>
+  <si>
+    <t>Z171834281</t>
+  </si>
+  <si>
+    <t>H277135927</t>
+  </si>
+  <si>
+    <t>Z150400561</t>
+  </si>
+  <si>
+    <t>P227884961</t>
+  </si>
+  <si>
+    <t>H139256461</t>
+  </si>
+  <si>
+    <t>K203289550</t>
+  </si>
+  <si>
+    <t>U294338299</t>
+  </si>
+  <si>
+    <t>E245140277</t>
+  </si>
+  <si>
+    <t>R192994614</t>
+  </si>
+  <si>
+    <t>F190759663</t>
+  </si>
+  <si>
+    <t>X287741376</t>
+  </si>
+  <si>
+    <t>O220165473</t>
+  </si>
+  <si>
+    <t>L201881850</t>
+  </si>
+  <si>
+    <t>G221367349</t>
+  </si>
+  <si>
+    <t>P164761738</t>
+  </si>
+  <si>
+    <t>V224136535</t>
+  </si>
+  <si>
+    <t>D171500219</t>
+  </si>
+  <si>
+    <t>F210564313</t>
+  </si>
+  <si>
+    <t>A204479602</t>
+  </si>
+  <si>
+    <t>T142682438</t>
+  </si>
+  <si>
+    <t>H297257040</t>
+  </si>
+  <si>
+    <t>M297109097</t>
+  </si>
+  <si>
+    <t>L222267074</t>
+  </si>
+  <si>
+    <t>P110853141</t>
+  </si>
+  <si>
+    <t>H107257747</t>
+  </si>
+  <si>
+    <t>G263234649</t>
+  </si>
+  <si>
+    <t>K188473689</t>
+  </si>
+  <si>
+    <t>L204770167</t>
+  </si>
+  <si>
+    <t>K291342319</t>
+  </si>
+  <si>
+    <t>E114195777</t>
+  </si>
+  <si>
+    <t>T172606704</t>
+  </si>
+  <si>
+    <t>A247285319</t>
+  </si>
+  <si>
+    <t>U123280139</t>
+  </si>
+  <si>
+    <t>R279448639</t>
+  </si>
+  <si>
+    <t>S261033741</t>
+  </si>
+  <si>
+    <t>U235981705</t>
+  </si>
+  <si>
+    <t>Q117889122</t>
+  </si>
+  <si>
+    <t>Z234720837</t>
+  </si>
+  <si>
+    <t>T191671589</t>
+  </si>
+  <si>
+    <t>V270999960</t>
+  </si>
+  <si>
+    <t>O262016251</t>
+  </si>
+  <si>
+    <t>U121837229</t>
+  </si>
+  <si>
+    <t>Q127659994</t>
+  </si>
+  <si>
+    <t>K113739449</t>
+  </si>
+  <si>
+    <t>A153826753</t>
+  </si>
+  <si>
+    <t>X122703741</t>
+  </si>
+  <si>
+    <t>X285601217</t>
+  </si>
+  <si>
+    <t>P158919880</t>
+  </si>
+  <si>
+    <t>O173929561</t>
+  </si>
+  <si>
+    <t>V126686134</t>
+  </si>
+  <si>
+    <t>L136425724</t>
+  </si>
+  <si>
+    <t>A289604930</t>
+  </si>
+  <si>
+    <t>J199900294</t>
+  </si>
+  <si>
+    <t>C198998687</t>
+  </si>
+  <si>
+    <t>G179279625</t>
+  </si>
+  <si>
+    <t>B289410117</t>
+  </si>
+  <si>
+    <t>N145996872</t>
+  </si>
+  <si>
+    <t>S181936652</t>
+  </si>
+  <si>
+    <t>M139498417</t>
+  </si>
+  <si>
+    <t>U260737466</t>
+  </si>
+  <si>
+    <t>G200232412</t>
+  </si>
+  <si>
+    <t>B122542152</t>
+  </si>
+  <si>
+    <t>O246239594</t>
+  </si>
+  <si>
+    <t>L159619751</t>
+  </si>
+  <si>
+    <t>B242159459</t>
+  </si>
+  <si>
+    <t>A176582996</t>
+  </si>
+  <si>
+    <t>H130438449</t>
+  </si>
+  <si>
+    <t>I266574342</t>
+  </si>
+  <si>
+    <t>V238961920</t>
+  </si>
+  <si>
+    <t>T113640766</t>
+  </si>
+  <si>
+    <t>S283034279</t>
+  </si>
+  <si>
+    <t>K147497825</t>
+  </si>
+  <si>
+    <t>T184724682</t>
+  </si>
+  <si>
+    <t>V294924885</t>
+  </si>
+  <si>
+    <t>Q186780336</t>
+  </si>
+  <si>
+    <t>S174100400</t>
+  </si>
+  <si>
+    <t>V257411196</t>
+  </si>
+  <si>
+    <t>I284155318</t>
+  </si>
+  <si>
+    <t>G129605880</t>
+  </si>
+  <si>
+    <t>V162216030</t>
+  </si>
+  <si>
+    <t>H175537510</t>
+  </si>
+  <si>
+    <t>K197670436</t>
+  </si>
+  <si>
+    <t>T182438245</t>
+  </si>
+  <si>
+    <t>O199709489</t>
+  </si>
+  <si>
+    <t>B113035902</t>
+  </si>
+  <si>
+    <t>O103123933</t>
+  </si>
+  <si>
+    <t>M198500658</t>
+  </si>
+  <si>
+    <t>X280886738</t>
+  </si>
+  <si>
+    <t>B193505645</t>
+  </si>
+  <si>
+    <t>Z127981328</t>
+  </si>
+  <si>
+    <t>J299103751</t>
+  </si>
+  <si>
+    <t>R188393814</t>
+  </si>
+  <si>
+    <t>I115310141</t>
+  </si>
+  <si>
+    <t>W257048766</t>
+  </si>
+  <si>
+    <t>U225427070</t>
+  </si>
+  <si>
+    <t>T203712588</t>
+  </si>
+  <si>
+    <t>T146176931</t>
+  </si>
+  <si>
+    <t>W197179846</t>
+  </si>
+  <si>
+    <t>S219970460</t>
+  </si>
+  <si>
+    <t>V153777575</t>
+  </si>
+  <si>
+    <t>U216983118</t>
+  </si>
+  <si>
+    <t>X151402137</t>
+  </si>
+  <si>
+    <t>E142178491</t>
+  </si>
+  <si>
+    <t>J289943618</t>
+  </si>
+  <si>
+    <t>O213127052</t>
+  </si>
+  <si>
+    <t>U242273638</t>
+  </si>
+  <si>
+    <t>W273751106</t>
+  </si>
+  <si>
+    <t>H253790533</t>
+  </si>
+  <si>
+    <t>U248085383</t>
+  </si>
+  <si>
+    <t>O104173848</t>
+  </si>
+  <si>
+    <t>J232432966</t>
+  </si>
+  <si>
+    <t>E223927609</t>
+  </si>
+  <si>
+    <t>G149660565</t>
+  </si>
+  <si>
+    <t>I247498676</t>
+  </si>
+  <si>
+    <t>P250811950</t>
+  </si>
+  <si>
+    <t>B133739394</t>
+  </si>
+  <si>
+    <t>D131257131</t>
+  </si>
+  <si>
+    <t>P128087919</t>
+  </si>
+  <si>
+    <t>U180633421</t>
+  </si>
+  <si>
+    <t>Q286384247</t>
+  </si>
+  <si>
+    <t>F176002041</t>
+  </si>
+  <si>
+    <t>H203453236</t>
+  </si>
+  <si>
+    <t>P282919074</t>
+  </si>
+  <si>
+    <t>G128750546</t>
+  </si>
+  <si>
+    <t>H257317978</t>
+  </si>
+  <si>
+    <t>N160446006</t>
+  </si>
+  <si>
+    <t>F209854360</t>
+  </si>
+  <si>
+    <t>N236761738</t>
+  </si>
+  <si>
+    <t>B262992709</t>
+  </si>
+  <si>
+    <t>J251398943</t>
+  </si>
+  <si>
+    <t>R162150819</t>
+  </si>
+  <si>
+    <t>W246906444</t>
+  </si>
+  <si>
+    <t>Z271060523</t>
+  </si>
+  <si>
+    <t>W265505449</t>
+  </si>
+  <si>
+    <t>G275621401</t>
+  </si>
+  <si>
+    <t>U240375479</t>
+  </si>
+  <si>
+    <t>D114812905</t>
+  </si>
+  <si>
+    <t>C118494715</t>
+  </si>
+  <si>
+    <t>R295939751</t>
+  </si>
+  <si>
+    <t>W150927315</t>
+  </si>
+  <si>
+    <t>A222312084</t>
+  </si>
+  <si>
+    <t>I241437526</t>
+  </si>
+  <si>
+    <t>A228565874</t>
+  </si>
+  <si>
+    <t>G197684839</t>
+  </si>
+  <si>
+    <t>K226785493</t>
+  </si>
+  <si>
+    <t>H101455936</t>
+  </si>
+  <si>
+    <t>S180926241</t>
+  </si>
+  <si>
+    <t>A116239812</t>
+  </si>
+  <si>
+    <t>F261878508</t>
+  </si>
+  <si>
+    <t>P108861268</t>
+  </si>
+  <si>
+    <t>P100142042</t>
+  </si>
+  <si>
+    <t>E161380000</t>
+  </si>
+  <si>
+    <t>W116857927</t>
+  </si>
+  <si>
+    <t>I125148791</t>
+  </si>
+  <si>
+    <t>U196272372</t>
+  </si>
+  <si>
+    <t>P107383238</t>
+  </si>
+  <si>
+    <t>I134540258</t>
+  </si>
+  <si>
+    <t>L235969961</t>
+  </si>
+  <si>
+    <t>H222337140</t>
+  </si>
+  <si>
+    <t>S116584684</t>
+  </si>
+  <si>
+    <t>R240297646</t>
+  </si>
+  <si>
+    <t>R261572359</t>
+  </si>
+  <si>
+    <t>D197725681</t>
+  </si>
+  <si>
+    <t>T215815147</t>
+  </si>
+  <si>
+    <t>E135400666</t>
+  </si>
+  <si>
+    <t>F214722713</t>
+  </si>
+  <si>
+    <t>Z199977949</t>
+  </si>
+  <si>
+    <t>X158892844</t>
+  </si>
+  <si>
+    <t>F216291042</t>
+  </si>
+  <si>
+    <t>W173896706</t>
+  </si>
+  <si>
+    <t>J296441647</t>
+  </si>
+  <si>
+    <t>D197693282</t>
+  </si>
+  <si>
+    <t>L254588397</t>
+  </si>
+  <si>
+    <t>D179762382</t>
+  </si>
+  <si>
+    <t>E202162715</t>
+  </si>
+  <si>
+    <t>E116355119</t>
+  </si>
+  <si>
+    <t>W214765722</t>
+  </si>
+  <si>
+    <t>Q260119446</t>
+  </si>
+  <si>
+    <t>S108109462</t>
+  </si>
+  <si>
+    <t>S108653634</t>
+  </si>
+  <si>
+    <t>T223238074</t>
+  </si>
+  <si>
+    <t>Z208501740</t>
+  </si>
+  <si>
+    <t>S206101817</t>
+  </si>
+  <si>
+    <t>D255276014</t>
+  </si>
+  <si>
+    <t>O285595059</t>
+  </si>
+  <si>
+    <t>B164203712</t>
+  </si>
+  <si>
+    <t>K223504969</t>
+  </si>
+  <si>
+    <t>E282316888</t>
+  </si>
+  <si>
+    <t>Z133835597</t>
+  </si>
+  <si>
+    <t>O289882919</t>
+  </si>
+  <si>
+    <t>C226372515</t>
+  </si>
+  <si>
+    <t>V260239966</t>
+  </si>
+  <si>
+    <t>E263294527</t>
+  </si>
+  <si>
+    <t>E226103861</t>
+  </si>
+  <si>
+    <t>E211079769</t>
+  </si>
+  <si>
+    <t>X141213771</t>
+  </si>
+  <si>
+    <t>N100153419</t>
+  </si>
+  <si>
+    <t>C250744427</t>
+  </si>
+  <si>
+    <t>Z140467385</t>
+  </si>
+  <si>
+    <t>T262130133</t>
+  </si>
+  <si>
+    <t>V112924087</t>
+  </si>
+  <si>
+    <t>X143314495</t>
+  </si>
+  <si>
+    <t>N281395382</t>
+  </si>
+  <si>
+    <t>A193721782</t>
+  </si>
+  <si>
+    <t>A167906826</t>
+  </si>
+  <si>
+    <t>H141796425</t>
+  </si>
+  <si>
+    <t>U244414093</t>
+  </si>
+  <si>
+    <t>J273173226</t>
+  </si>
+  <si>
+    <t>R141325914</t>
+  </si>
+  <si>
+    <t>J281303194</t>
+  </si>
+  <si>
+    <t>N193349361</t>
+  </si>
+  <si>
+    <t>V186765450</t>
+  </si>
+  <si>
+    <t>K153668152</t>
+  </si>
+  <si>
+    <t>V166444692</t>
+  </si>
+  <si>
+    <t>T147403302</t>
+  </si>
+  <si>
+    <t>W143327396</t>
+  </si>
+  <si>
+    <t>U140649543</t>
+  </si>
+  <si>
+    <t>V126944579</t>
+  </si>
+  <si>
+    <t>X154958645</t>
+  </si>
+  <si>
+    <t>L157566962</t>
+  </si>
+  <si>
+    <t>T250356118</t>
+  </si>
+  <si>
+    <t>A241150540</t>
+  </si>
+  <si>
+    <t>V138033732</t>
+  </si>
+  <si>
+    <t>E242080854</t>
+  </si>
+  <si>
+    <t>K212487466</t>
+  </si>
+  <si>
+    <t>R259478328</t>
+  </si>
+  <si>
+    <t>P290538510</t>
+  </si>
+  <si>
+    <t>W139500832</t>
+  </si>
+  <si>
+    <t>P204046098</t>
+  </si>
+  <si>
+    <t>G285787658</t>
+  </si>
+  <si>
+    <t>A199659105</t>
+  </si>
+  <si>
+    <t>V134430397</t>
+  </si>
+  <si>
+    <t>H257946693</t>
+  </si>
+  <si>
+    <t>J298986345</t>
+  </si>
+  <si>
+    <t>C129541654</t>
+  </si>
+  <si>
+    <t>W182713792</t>
+  </si>
+  <si>
+    <t>X155311520</t>
+  </si>
+  <si>
+    <t>T141690141</t>
+  </si>
+  <si>
+    <t>E241391867</t>
+  </si>
+  <si>
+    <t>H177924628</t>
+  </si>
+  <si>
+    <t>A214666037</t>
+  </si>
+  <si>
+    <t>A175280466</t>
+  </si>
+  <si>
+    <t>G294012119</t>
+  </si>
+  <si>
+    <t>J269321330</t>
+  </si>
+  <si>
+    <t>J283223457</t>
+  </si>
+  <si>
+    <t>Q119783623</t>
+  </si>
+  <si>
+    <t>D217784437</t>
+  </si>
+  <si>
+    <t>E210703515</t>
+  </si>
+  <si>
+    <t>B113961729</t>
+  </si>
+  <si>
+    <t>C238410959</t>
+  </si>
+  <si>
+    <t>A226398482</t>
+  </si>
+  <si>
+    <t>V129603146</t>
+  </si>
+  <si>
+    <t>C269192119</t>
+  </si>
+  <si>
+    <t>R238168470</t>
+  </si>
+  <si>
+    <t>I270529006</t>
+  </si>
+  <si>
+    <t>W115058000</t>
+  </si>
+  <si>
+    <t>H166952107</t>
+  </si>
+  <si>
+    <t>Z291662158</t>
+  </si>
+  <si>
+    <t>X223831899</t>
+  </si>
+  <si>
+    <t>F211369241</t>
+  </si>
+  <si>
+    <t>R294966772</t>
+  </si>
+  <si>
+    <t>Z215101321</t>
+  </si>
+  <si>
+    <t>S261912523</t>
+  </si>
+  <si>
+    <t>S250184531</t>
+  </si>
+  <si>
+    <t>W154819074</t>
+  </si>
+  <si>
+    <t>M223757774</t>
+  </si>
+  <si>
+    <t>C272481081</t>
+  </si>
+  <si>
+    <t>K289713004</t>
+  </si>
+  <si>
+    <t>O158675160</t>
+  </si>
+  <si>
+    <t>U141103608</t>
+  </si>
+  <si>
+    <t>B229016620</t>
+  </si>
+  <si>
+    <t>Z161737211</t>
+  </si>
+  <si>
+    <t>I138635178</t>
+  </si>
+  <si>
+    <t>L232494029</t>
+  </si>
+  <si>
+    <t>S119974804</t>
+  </si>
+  <si>
+    <t>O233253839</t>
+  </si>
+  <si>
+    <t>I225146557</t>
+  </si>
+  <si>
+    <t>Q180504636</t>
+  </si>
+  <si>
+    <t>D124813950</t>
+  </si>
+  <si>
+    <t>E188206343</t>
+  </si>
+  <si>
+    <t>S102751453</t>
+  </si>
+  <si>
+    <t>L159227020</t>
+  </si>
+  <si>
+    <t>A202224903</t>
+  </si>
+  <si>
+    <t>T126972080</t>
+  </si>
+  <si>
+    <t>K189869223</t>
+  </si>
+  <si>
+    <t>B185165771</t>
+  </si>
+  <si>
+    <t>H290739245</t>
+  </si>
+  <si>
+    <t>R172981059</t>
+  </si>
+  <si>
+    <t>B296362144</t>
+  </si>
+  <si>
+    <t>P228955754</t>
+  </si>
+  <si>
+    <t>S256431404</t>
+  </si>
+  <si>
+    <t>O281563417</t>
+  </si>
+  <si>
+    <t>L236341574</t>
+  </si>
+  <si>
+    <t>E286018712</t>
+  </si>
+  <si>
+    <t>O103665472</t>
+  </si>
+  <si>
+    <t>U151139610</t>
+  </si>
+  <si>
+    <t>O117196828</t>
+  </si>
+  <si>
+    <t>F229710181</t>
+  </si>
+  <si>
+    <t>O203118578</t>
+  </si>
+  <si>
+    <t>C231911024</t>
+  </si>
+  <si>
+    <t>U297263039</t>
+  </si>
+  <si>
+    <t>V110702298</t>
+  </si>
+  <si>
+    <t>W196541455</t>
+  </si>
+  <si>
+    <t>G236002622</t>
+  </si>
+  <si>
+    <t>G165254218</t>
+  </si>
+  <si>
+    <t>W153153371</t>
+  </si>
+  <si>
+    <t>V174188836</t>
+  </si>
+  <si>
+    <t>O113738302</t>
+  </si>
+  <si>
+    <t>A129797074</t>
+  </si>
+  <si>
+    <t>R184870776</t>
+  </si>
+  <si>
+    <t>T265831753</t>
+  </si>
+  <si>
+    <t>X130477143</t>
+  </si>
+  <si>
+    <t>E145874472</t>
+  </si>
+  <si>
+    <t>S283765699</t>
+  </si>
+  <si>
+    <t>P181031426</t>
+  </si>
+  <si>
+    <t>A190608120</t>
+  </si>
+  <si>
+    <t>H146688571</t>
+  </si>
+  <si>
+    <t>V112195086</t>
+  </si>
+  <si>
+    <t>R173764132</t>
+  </si>
+  <si>
+    <t>C107308011</t>
+  </si>
+  <si>
+    <t>N128538116</t>
+  </si>
+  <si>
+    <t>U161903855</t>
+  </si>
+  <si>
+    <t>J107776846</t>
+  </si>
+  <si>
+    <t>U287347457</t>
+  </si>
+  <si>
+    <t>C270849290</t>
+  </si>
+  <si>
+    <t>K164729291</t>
+  </si>
+  <si>
+    <t>E128228412</t>
+  </si>
+  <si>
+    <t>I189383276</t>
+  </si>
+  <si>
+    <t>A131144243</t>
+  </si>
+  <si>
+    <t>D239495144</t>
+  </si>
+  <si>
+    <t>S296932319</t>
+  </si>
+  <si>
+    <t>R215192709</t>
+  </si>
+  <si>
+    <t>V285985441</t>
+  </si>
+  <si>
+    <t>H140185786</t>
+  </si>
+  <si>
+    <t>S161262008</t>
+  </si>
+  <si>
+    <t>W110651912</t>
+  </si>
+  <si>
+    <t>X179356147</t>
+  </si>
+  <si>
+    <t>J181421042</t>
+  </si>
+  <si>
+    <t>V130432617</t>
+  </si>
+  <si>
+    <t>D231110233</t>
+  </si>
+  <si>
+    <t>J150157946</t>
+  </si>
+  <si>
+    <t>R141600609</t>
+  </si>
+  <si>
+    <t>O209802604</t>
+  </si>
+  <si>
+    <t>P171379384</t>
+  </si>
+  <si>
+    <t>V164643884</t>
+  </si>
+  <si>
+    <t>P259456786</t>
+  </si>
+  <si>
+    <t>M232553177</t>
+  </si>
+  <si>
+    <t>M113291909</t>
+  </si>
+  <si>
+    <t>X200502626</t>
+  </si>
+  <si>
+    <t>E190800119</t>
+  </si>
+  <si>
+    <t>B157138657</t>
+  </si>
+  <si>
+    <t>B246340250</t>
+  </si>
+  <si>
+    <t>B239883357</t>
+  </si>
+  <si>
+    <t>S201604822</t>
+  </si>
+  <si>
+    <t>C277501131</t>
+  </si>
+  <si>
+    <t>T275249525</t>
+  </si>
+  <si>
+    <t>F180971148</t>
+  </si>
+  <si>
+    <t>W163069671</t>
+  </si>
+  <si>
+    <t>M137087194</t>
+  </si>
+  <si>
+    <t>H184942743</t>
+  </si>
+  <si>
+    <t>Q257758135</t>
+  </si>
+  <si>
+    <t>W202354175</t>
+  </si>
+  <si>
+    <t>K189805961</t>
+  </si>
+  <si>
+    <t>B280474384</t>
+  </si>
+  <si>
+    <t>F158362697</t>
+  </si>
+  <si>
+    <t>K297423037</t>
+  </si>
+  <si>
+    <t>R226765987</t>
+  </si>
+  <si>
+    <t>I174768016</t>
+  </si>
+  <si>
+    <t>I298435892</t>
+  </si>
+  <si>
+    <t>A162316788</t>
+  </si>
+  <si>
+    <t>K220523284</t>
+  </si>
+  <si>
+    <t>G145547801</t>
+  </si>
+  <si>
+    <t>E223178437</t>
+  </si>
+  <si>
+    <t>B164484968</t>
+  </si>
+  <si>
+    <t>L254865460</t>
+  </si>
+  <si>
+    <t>N208160347</t>
+  </si>
+  <si>
+    <t>X114120130</t>
+  </si>
+  <si>
+    <t>X214418735</t>
+  </si>
+  <si>
+    <t>O240235949</t>
+  </si>
+  <si>
+    <t>M124523118</t>
+  </si>
+  <si>
+    <t>P294772698</t>
+  </si>
+  <si>
+    <t>S259023324</t>
+  </si>
+  <si>
+    <t>B201194283</t>
+  </si>
+  <si>
+    <t>O121234626</t>
+  </si>
+  <si>
+    <t>J195935317</t>
+  </si>
+  <si>
+    <t>W293145631</t>
+  </si>
+  <si>
+    <t>M132816060</t>
+  </si>
+  <si>
+    <t>Z191658536</t>
+  </si>
+  <si>
+    <t>B280213989</t>
+  </si>
+  <si>
+    <t>I181976859</t>
+  </si>
+  <si>
+    <t>E266586086</t>
+  </si>
+  <si>
+    <t>E179923840</t>
+  </si>
+  <si>
+    <t>I137958270</t>
+  </si>
+  <si>
+    <t>I135280626</t>
+  </si>
+  <si>
+    <t>C215809225</t>
+  </si>
+  <si>
+    <t>A278045925</t>
+  </si>
+  <si>
+    <t>A210597871</t>
+  </si>
+  <si>
+    <t>K248053696</t>
+  </si>
+  <si>
+    <t>K254735930</t>
+  </si>
+  <si>
+    <t>P194738783</t>
+  </si>
+  <si>
+    <t>Z148604602</t>
+  </si>
+  <si>
+    <t>G212890746</t>
+  </si>
+  <si>
+    <t>M164344995</t>
+  </si>
+  <si>
+    <t>S214470750</t>
+  </si>
+  <si>
+    <t>S214839535</t>
+  </si>
+  <si>
+    <t>O191894614</t>
+  </si>
+  <si>
+    <t>L204435172</t>
+  </si>
+  <si>
+    <t>Z135282085</t>
+  </si>
+  <si>
+    <t>Z224473607</t>
+  </si>
+  <si>
+    <t>L217249644</t>
+  </si>
+  <si>
+    <t>Z102510912</t>
+  </si>
+  <si>
+    <t>L130932542</t>
+  </si>
+  <si>
+    <t>A195901448</t>
+  </si>
+  <si>
+    <t>R139150185</t>
+  </si>
+  <si>
+    <t>Q298107312</t>
+  </si>
+  <si>
+    <t>M133061809</t>
+  </si>
+  <si>
+    <t>M111498991</t>
+  </si>
+  <si>
+    <t>X196646293</t>
+  </si>
+  <si>
+    <t>U173432165</t>
+  </si>
+  <si>
+    <t>P168253157</t>
+  </si>
+  <si>
+    <t>A254855634</t>
+  </si>
+  <si>
+    <t>E293920852</t>
+  </si>
+  <si>
+    <t>T220091195</t>
+  </si>
+  <si>
+    <t>Q185330181</t>
+  </si>
+  <si>
+    <t>F272180644</t>
+  </si>
+  <si>
+    <t>E159719313</t>
+  </si>
+  <si>
+    <t>C190597955</t>
+  </si>
+  <si>
+    <t>Z231735274</t>
+  </si>
+  <si>
+    <t>Q271351290</t>
+  </si>
+  <si>
+    <t>U227098988</t>
+  </si>
+  <si>
+    <t>A278249307</t>
+  </si>
+  <si>
+    <t>J135187680</t>
+  </si>
+  <si>
+    <t>L131842609</t>
+  </si>
+  <si>
+    <t>L232016187</t>
+  </si>
+  <si>
+    <t>E263061297</t>
+  </si>
+  <si>
+    <t>P167089993</t>
+  </si>
+  <si>
+    <t>Z154830707</t>
+  </si>
+  <si>
+    <t>K263542381</t>
+  </si>
+  <si>
+    <t>P158133684</t>
+  </si>
+  <si>
+    <t>W154589580</t>
+  </si>
+  <si>
+    <t>E273530316</t>
+  </si>
+  <si>
+    <t>R179038373</t>
+  </si>
+  <si>
+    <t>U265711033</t>
+  </si>
+  <si>
+    <t>X120378295</t>
+  </si>
+  <si>
+    <t>R176739962</t>
+  </si>
+  <si>
+    <t>D295653219</t>
+  </si>
+  <si>
+    <t>T266455971</t>
+  </si>
+  <si>
+    <t>J143330757</t>
+  </si>
+  <si>
+    <t>R193358756</t>
+  </si>
+  <si>
+    <t>K183657603</t>
+  </si>
+  <si>
+    <t>U192405786</t>
+  </si>
+  <si>
+    <t>V133322109</t>
+  </si>
+  <si>
+    <t>B213817102</t>
+  </si>
+  <si>
+    <t>A176173764</t>
+  </si>
+  <si>
+    <t>U217138564</t>
+  </si>
+  <si>
+    <t>S204226348</t>
+  </si>
+  <si>
+    <t>Q299167929</t>
+  </si>
+  <si>
+    <t>F213694514</t>
+  </si>
+  <si>
+    <t>E197750550</t>
+  </si>
+  <si>
+    <t>F227975200</t>
+  </si>
+  <si>
+    <t>F297540995</t>
+  </si>
+  <si>
+    <t>N246883232</t>
+  </si>
+  <si>
+    <t>L241031861</t>
+  </si>
+  <si>
+    <t>O107278582</t>
+  </si>
+  <si>
+    <t>S201705164</t>
+  </si>
+  <si>
+    <t>C136082606</t>
+  </si>
+  <si>
+    <t>F219949910</t>
+  </si>
+  <si>
+    <t>R197110583</t>
+  </si>
+  <si>
+    <t>P281865102</t>
+  </si>
+  <si>
+    <t>E162154488</t>
+  </si>
+  <si>
+    <t>D128719435</t>
+  </si>
+  <si>
+    <t>U281669632</t>
+  </si>
+  <si>
+    <t>L215776960</t>
+  </si>
+  <si>
+    <t>S261305975</t>
+  </si>
+  <si>
+    <t>H289868075</t>
+  </si>
+  <si>
+    <t>E285974131</t>
+  </si>
+  <si>
+    <t>P243269802</t>
+  </si>
+  <si>
+    <t>N105800226</t>
+  </si>
+  <si>
+    <t>L208288375</t>
+  </si>
+  <si>
+    <t>S279050470</t>
+  </si>
+  <si>
+    <t>V242376537</t>
+  </si>
+  <si>
+    <t>J184585356</t>
+  </si>
+  <si>
+    <t>J131237670</t>
+  </si>
+  <si>
+    <t>H225478504</t>
+  </si>
+  <si>
+    <t>I176353406</t>
+  </si>
+  <si>
+    <t>C140295451</t>
+  </si>
+  <si>
+    <t>Q203669061</t>
+  </si>
+  <si>
+    <t>X100722386</t>
+  </si>
+  <si>
+    <t>K271236347</t>
+  </si>
+  <si>
+    <t>O249804039</t>
+  </si>
+  <si>
+    <t>S294627388</t>
+  </si>
+  <si>
+    <t>C241575763</t>
+  </si>
+  <si>
+    <t>E258257085</t>
+  </si>
+  <si>
+    <t>G185552831</t>
+  </si>
+  <si>
+    <t>M259931308</t>
+  </si>
+  <si>
+    <t>C216541455</t>
+  </si>
+  <si>
+    <t>H120473329</t>
+  </si>
+  <si>
+    <t>X216861878</t>
+  </si>
+  <si>
+    <t>B250371889</t>
+  </si>
+  <si>
+    <t>F176375656</t>
+  </si>
+  <si>
+    <t>K119705349</t>
+  </si>
+  <si>
+    <t>Q165300963</t>
+  </si>
+  <si>
+    <t>S277098678</t>
+  </si>
+  <si>
+    <t>V187754237</t>
+  </si>
+  <si>
+    <t>W177130316</t>
+  </si>
+  <si>
+    <t>L279909105</t>
+  </si>
+  <si>
+    <t>H247260971</t>
+  </si>
+  <si>
+    <t>O232279053</t>
+  </si>
+  <si>
+    <t>O268176587</t>
+  </si>
+  <si>
+    <t>H247257947</t>
+  </si>
+  <si>
+    <t>P255354594</t>
+  </si>
+  <si>
+    <t>W222073715</t>
+  </si>
+  <si>
+    <t>Z175925078</t>
+  </si>
+  <si>
+    <t>V282986919</t>
+  </si>
+  <si>
+    <t>S270894725</t>
+  </si>
+  <si>
+    <t>D135678467</t>
+  </si>
+  <si>
+    <t>M143333241</t>
+  </si>
+  <si>
+    <t>V235029078</t>
+  </si>
+  <si>
+    <t>S198879519</t>
+  </si>
+  <si>
+    <t>R299702483</t>
+  </si>
+  <si>
+    <t>V261621655</t>
+  </si>
+  <si>
+    <t>F172466629</t>
+  </si>
+  <si>
+    <t>E234473274</t>
+  </si>
+  <si>
+    <t>G152262788</t>
+  </si>
+  <si>
+    <t>Q152140711</t>
+  </si>
+  <si>
+    <t>P128250976</t>
+  </si>
+  <si>
+    <t>B147988903</t>
+  </si>
+  <si>
+    <t>J147668118</t>
+  </si>
+  <si>
+    <t>T290731015</t>
+  </si>
+  <si>
+    <t>L270767549</t>
+  </si>
+  <si>
+    <t>X186275040</t>
+  </si>
+  <si>
+    <t>N108289309</t>
+  </si>
+  <si>
+    <t>G104042690</t>
+  </si>
+  <si>
+    <t>Z186492482</t>
+  </si>
+  <si>
+    <t>P247759914</t>
+  </si>
+  <si>
+    <t>R285478063</t>
+  </si>
+  <si>
+    <t>Z280545075</t>
+  </si>
+  <si>
+    <t>E105309978</t>
+  </si>
+  <si>
+    <t>B211118053</t>
+  </si>
+  <si>
+    <t>S104621038</t>
+  </si>
+  <si>
+    <t>G293130412</t>
+  </si>
+  <si>
+    <t>A223615226</t>
+  </si>
+  <si>
+    <t>E187398726</t>
+  </si>
+  <si>
+    <t>F227270657</t>
+  </si>
+  <si>
+    <t>W207102117</t>
+  </si>
+  <si>
+    <t>L222620599</t>
+  </si>
+  <si>
+    <t>T162348802</t>
+  </si>
+  <si>
+    <t>T233249749</t>
+  </si>
+  <si>
+    <t>K135498554</t>
+  </si>
+  <si>
+    <t>J159201463</t>
+  </si>
+  <si>
+    <t>C161064170</t>
+  </si>
+  <si>
+    <t>V190739619</t>
+  </si>
+  <si>
+    <t>M142377785</t>
+  </si>
+  <si>
+    <t>Q234694978</t>
+  </si>
+  <si>
+    <t>O268690251</t>
+  </si>
+  <si>
+    <t>P105792042</t>
+  </si>
+  <si>
+    <t>L272878714</t>
+  </si>
+  <si>
+    <t>B153282029</t>
+  </si>
+  <si>
+    <t>X104497044</t>
+  </si>
+  <si>
+    <t>O177612656</t>
+  </si>
+  <si>
+    <t>C103809268</t>
+  </si>
+  <si>
+    <t>Z108670524</t>
+  </si>
+  <si>
+    <t>J177873145</t>
+  </si>
+  <si>
+    <t>G291039832</t>
+  </si>
+  <si>
+    <t>V242918508</t>
+  </si>
+  <si>
+    <t>A269459822</t>
+  </si>
+  <si>
+    <t>Z251600487</t>
+  </si>
+  <si>
+    <t>M237802013</t>
+  </si>
+  <si>
+    <t>V203694827</t>
+  </si>
+  <si>
+    <t>A179904369</t>
+  </si>
+  <si>
+    <t>K279914026</t>
+  </si>
+  <si>
+    <t>M289187569</t>
+  </si>
+  <si>
+    <t>O179056950</t>
+  </si>
+  <si>
+    <t>N123838111</t>
+  </si>
+  <si>
+    <t>O157706291</t>
+  </si>
+  <si>
+    <t>U289061209</t>
+  </si>
+  <si>
+    <t>Q253066467</t>
+  </si>
+  <si>
+    <t>E157305857</t>
+  </si>
+  <si>
+    <t>U187897521</t>
+  </si>
+  <si>
+    <t>D181514672</t>
+  </si>
+  <si>
+    <t>F135758702</t>
+  </si>
+  <si>
+    <t>S177067822</t>
+  </si>
+  <si>
+    <t>D194630523</t>
+  </si>
+  <si>
+    <t>Z149215850</t>
+  </si>
+  <si>
+    <t>D244640679</t>
+  </si>
+  <si>
+    <t>Z280238280</t>
+  </si>
+  <si>
+    <t>O132115749</t>
+  </si>
+  <si>
+    <t>T136410024</t>
+  </si>
+  <si>
+    <t>O180549537</t>
+  </si>
+  <si>
+    <t>R160773556</t>
+  </si>
+  <si>
+    <t>D188845901</t>
+  </si>
+  <si>
+    <t>V209829637</t>
+  </si>
+  <si>
+    <t>R200734151</t>
+  </si>
+  <si>
+    <t>J187584986</t>
+  </si>
+  <si>
+    <t>B289758327</t>
+  </si>
+  <si>
+    <t>Z195308626</t>
+  </si>
+  <si>
+    <t>E238500290</t>
+  </si>
+  <si>
+    <t>T112939120</t>
+  </si>
+  <si>
+    <t>I108280389</t>
+  </si>
+  <si>
+    <t>K256107747</t>
+  </si>
+  <si>
+    <t>Q247736403</t>
+  </si>
+  <si>
+    <t>B283103113</t>
+  </si>
+  <si>
+    <t>N258455659</t>
+  </si>
+  <si>
+    <t>L277665664</t>
+  </si>
+  <si>
+    <t>V117030964</t>
+  </si>
+  <si>
+    <t>K224843965</t>
+  </si>
+  <si>
+    <t>G189013719</t>
+  </si>
+  <si>
+    <t>B174950764</t>
+  </si>
+  <si>
+    <t>R272710114</t>
+  </si>
+  <si>
+    <t>X193051112</t>
+  </si>
+  <si>
+    <t>C141051631</t>
+  </si>
+  <si>
+    <t>Q232845646</t>
+  </si>
+  <si>
+    <t>O241746816</t>
+  </si>
+  <si>
+    <t>I103651824</t>
+  </si>
+  <si>
+    <t>V176529380</t>
+  </si>
+  <si>
+    <t>H106739802</t>
+  </si>
+  <si>
+    <t>K247770607</t>
+  </si>
+  <si>
+    <t>Q126825421</t>
+  </si>
+  <si>
+    <t>O157166297</t>
+  </si>
+  <si>
+    <t>B142067847</t>
+  </si>
+  <si>
+    <t>B134728546</t>
+  </si>
+  <si>
+    <t>P110151731</t>
+  </si>
+  <si>
+    <t>B286235194</t>
+  </si>
+  <si>
+    <t>X121361114</t>
+  </si>
+  <si>
+    <t>V179563026</t>
+  </si>
+  <si>
+    <t>J108989285</t>
+  </si>
+  <si>
+    <t>V260368837</t>
+  </si>
+  <si>
+    <t>Q136803455</t>
+  </si>
+  <si>
+    <t>D198787845</t>
+  </si>
+  <si>
+    <t>U138611851</t>
+  </si>
+  <si>
+    <t>M242530613</t>
+  </si>
+  <si>
+    <t>A235502341</t>
+  </si>
+  <si>
+    <t>Z114769069</t>
+  </si>
+  <si>
+    <t>W293175095</t>
+  </si>
+  <si>
+    <t>M238205349</t>
+  </si>
+  <si>
+    <t>E187180206</t>
+  </si>
+  <si>
+    <t>B289601609</t>
+  </si>
+  <si>
+    <t>E276744965</t>
+  </si>
+  <si>
+    <t>R161554484</t>
+  </si>
+  <si>
+    <t>Q173019622</t>
+  </si>
+  <si>
+    <t>M198336514</t>
+  </si>
+  <si>
+    <t>D242104009</t>
+  </si>
+  <si>
+    <t>M267573114</t>
+  </si>
+  <si>
+    <t>E219106816</t>
+  </si>
+  <si>
+    <t>Q119468470</t>
+  </si>
+  <si>
+    <t>K106259427</t>
+  </si>
+  <si>
+    <t>H214479371</t>
+  </si>
+  <si>
+    <t>Z130129609</t>
+  </si>
+  <si>
+    <t>M113838135</t>
+  </si>
+  <si>
+    <t>T201866912</t>
+  </si>
+  <si>
+    <t>X275201205</t>
+  </si>
+  <si>
+    <t>X155342829</t>
+  </si>
+  <si>
+    <t>P232353008</t>
+  </si>
+  <si>
+    <t>R123905558</t>
+  </si>
+  <si>
+    <t>P118402075</t>
+  </si>
+  <si>
+    <t>S238034210</t>
+  </si>
+  <si>
+    <t>T140871508</t>
+  </si>
+  <si>
+    <t>K190111461</t>
+  </si>
+  <si>
+    <t>E119293205</t>
+  </si>
+  <si>
+    <t>Z168322950</t>
+  </si>
+  <si>
+    <t>R247083784</t>
+  </si>
+  <si>
+    <t>H183355522</t>
+  </si>
+  <si>
+    <t>F239798526</t>
+  </si>
+  <si>
+    <t>W209169638</t>
+  </si>
+  <si>
+    <t>L208728801</t>
+  </si>
+  <si>
+    <t>F126514292</t>
+  </si>
+  <si>
+    <t>U243484733</t>
+  </si>
+  <si>
+    <t>S145610871</t>
+  </si>
+  <si>
+    <t>E131570229</t>
+  </si>
+  <si>
+    <t>Z141985560</t>
+  </si>
+  <si>
+    <t>Q106379464</t>
+  </si>
+  <si>
+    <t>F156519090</t>
+  </si>
+  <si>
+    <t>F229633910</t>
+  </si>
+  <si>
+    <t>C254977691</t>
+  </si>
+  <si>
+    <t>Z136593916</t>
+  </si>
+  <si>
+    <t>I201522813</t>
+  </si>
+  <si>
+    <t>U227206819</t>
+  </si>
+  <si>
+    <t>N187074022</t>
+  </si>
+  <si>
+    <t>D107357257</t>
+  </si>
+  <si>
+    <t>P291648033</t>
+  </si>
+  <si>
+    <t>R158423229</t>
+  </si>
+  <si>
+    <t>B259948359</t>
+  </si>
+  <si>
+    <t>T112517820</t>
+  </si>
+  <si>
+    <t>J254525291</t>
+  </si>
+  <si>
+    <t>M177122118</t>
+  </si>
+  <si>
+    <t>X285551936</t>
+  </si>
+  <si>
+    <t>S248411587</t>
+  </si>
+  <si>
+    <t>B152157876</t>
+  </si>
+  <si>
+    <t>P264002236</t>
+  </si>
+  <si>
+    <t>U125479625</t>
+  </si>
+  <si>
+    <t>S136619491</t>
+  </si>
+  <si>
+    <t>E173162932</t>
+  </si>
+  <si>
+    <t>B216414336</t>
+  </si>
+  <si>
+    <t>O238601424</t>
+  </si>
+  <si>
+    <t>C240456287</t>
+  </si>
+  <si>
+    <t>D267052444</t>
+  </si>
+  <si>
+    <t>F114762420</t>
+  </si>
+  <si>
+    <t>G148202238</t>
+  </si>
+  <si>
+    <t>M147495162</t>
+  </si>
+  <si>
+    <t>L200805347</t>
+  </si>
+  <si>
+    <t>K121244048</t>
+  </si>
+  <si>
+    <t>K230321390</t>
+  </si>
+  <si>
+    <t>W280300986</t>
+  </si>
+  <si>
+    <t>K268651438</t>
+  </si>
+  <si>
+    <t>J234155711</t>
+  </si>
+  <si>
+    <t>S123792212</t>
+  </si>
+  <si>
+    <t>S264941259</t>
+  </si>
+  <si>
+    <t>L145873185</t>
+  </si>
+  <si>
+    <t>O267817178</t>
+  </si>
+  <si>
+    <t>L277406450</t>
+  </si>
+  <si>
+    <t>N250252843</t>
+  </si>
+  <si>
+    <t>X283481048</t>
+  </si>
+  <si>
+    <t>G155903473</t>
+  </si>
+  <si>
+    <t>M117435649</t>
+  </si>
+  <si>
+    <t>K215368959</t>
+  </si>
+  <si>
+    <t>H170970873</t>
+  </si>
+  <si>
+    <t>X286582775</t>
+  </si>
+  <si>
+    <t>S191090850</t>
+  </si>
+  <si>
+    <t>A251788958</t>
+  </si>
+  <si>
+    <t>Z156679006</t>
+  </si>
+  <si>
+    <t>R265334033</t>
+  </si>
+  <si>
+    <t>K110147627</t>
+  </si>
+  <si>
+    <t>H117381250</t>
+  </si>
+  <si>
+    <t>F285270782</t>
+  </si>
+  <si>
+    <t>O134208023</t>
+  </si>
+  <si>
+    <t>E157523953</t>
+  </si>
+  <si>
+    <t>H256790982</t>
+  </si>
+  <si>
+    <t>Z262933531</t>
+  </si>
+  <si>
+    <t>O248773491</t>
+  </si>
+  <si>
+    <t>R285291511</t>
+  </si>
+  <si>
+    <t>R288458723</t>
+  </si>
+  <si>
+    <t>O171790713</t>
+  </si>
+  <si>
+    <t>U271913669</t>
+  </si>
+  <si>
+    <t>C148014136</t>
+  </si>
+  <si>
+    <t>O245997882</t>
+  </si>
+  <si>
+    <t>L140810651</t>
+  </si>
+  <si>
+    <t>I272033138</t>
+  </si>
+  <si>
+    <t>W121583452</t>
+  </si>
+  <si>
+    <t>H196265555</t>
+  </si>
+  <si>
+    <t>R223936617</t>
+  </si>
+  <si>
+    <t>G127838729</t>
+  </si>
+  <si>
+    <t>B232241548</t>
+  </si>
+  <si>
+    <t>V176486595</t>
+  </si>
+  <si>
+    <t>G114091212</t>
+  </si>
+  <si>
+    <t>Q223788549</t>
+  </si>
+  <si>
+    <t>A269457480</t>
+  </si>
+  <si>
+    <t>Z239737092</t>
+  </si>
+  <si>
+    <t>S288765706</t>
+  </si>
+  <si>
+    <t>H196450107</t>
+  </si>
+  <si>
+    <t>E215695385</t>
+  </si>
+  <si>
+    <t>A203059884</t>
+  </si>
+  <si>
+    <t>S102606926</t>
+  </si>
+  <si>
+    <t>E110254480</t>
+  </si>
+  <si>
+    <t>L289730970</t>
+  </si>
+  <si>
+    <t>F275031040</t>
+  </si>
+  <si>
+    <t>V182022007</t>
+  </si>
+  <si>
+    <t>N216155725</t>
+  </si>
+  <si>
+    <t>J262643459</t>
+  </si>
+  <si>
+    <t>O273698812</t>
+  </si>
+  <si>
+    <t>H121878944</t>
+  </si>
+  <si>
+    <t>M230541188</t>
+  </si>
+  <si>
+    <t>F197013142</t>
+  </si>
+  <si>
+    <t>I190304861</t>
+  </si>
+  <si>
+    <t>O180738883</t>
+  </si>
+  <si>
+    <t>Q213606629</t>
+  </si>
+  <si>
+    <t>X122453193</t>
+  </si>
+  <si>
+    <t>O265862120</t>
+  </si>
+  <si>
+    <t>C174717171</t>
+  </si>
+  <si>
+    <t>J257716892</t>
+  </si>
+  <si>
+    <t>W116978949</t>
+  </si>
+  <si>
+    <t>A226378266</t>
+  </si>
+  <si>
+    <t>Q259011206</t>
+  </si>
+  <si>
+    <t>O244525873</t>
+  </si>
+  <si>
+    <t>H156504715</t>
+  </si>
+  <si>
+    <t>I242407997</t>
+  </si>
+  <si>
+    <t>A159528096</t>
+  </si>
+  <si>
+    <t>E155138170</t>
+  </si>
+  <si>
+    <t>K113613002</t>
+  </si>
+  <si>
+    <t>L187615496</t>
+  </si>
+  <si>
+    <t>A134108089</t>
+  </si>
+  <si>
+    <t>S186926307</t>
+  </si>
+  <si>
+    <t>A186660783</t>
+  </si>
+  <si>
+    <t>N251868765</t>
+  </si>
+  <si>
+    <t>H112966897</t>
+  </si>
+  <si>
+    <t>I222383763</t>
+  </si>
+  <si>
+    <t>O240544514</t>
+  </si>
+  <si>
+    <t>P235238320</t>
+  </si>
+  <si>
+    <t>M290083714</t>
+  </si>
+  <si>
+    <t>H148638015</t>
+  </si>
+  <si>
+    <t>U248601663</t>
+  </si>
+  <si>
+    <t>Z128251963</t>
+  </si>
+  <si>
+    <t>O157459091</t>
+  </si>
+  <si>
+    <t>P108773594</t>
+  </si>
+  <si>
+    <t>T127953187</t>
+  </si>
+  <si>
+    <t>O228972818</t>
+  </si>
+  <si>
+    <t>G155981860</t>
+  </si>
+  <si>
+    <t>X132410128</t>
+  </si>
+  <si>
+    <t>H253883006</t>
+  </si>
+  <si>
+    <t>J109764237</t>
+  </si>
+  <si>
+    <t>S103384189</t>
+  </si>
+  <si>
+    <t>A165805568</t>
+  </si>
+  <si>
+    <t>F144375211</t>
+  </si>
+  <si>
+    <t>Z222164525</t>
+  </si>
+  <si>
+    <t>V144544059</t>
+  </si>
+  <si>
+    <t>I170762858</t>
+  </si>
+  <si>
+    <t>S244765495</t>
+  </si>
+  <si>
+    <t>D253863680</t>
+  </si>
+  <si>
+    <t>E273470691</t>
+  </si>
+  <si>
+    <t>A178023543</t>
+  </si>
+  <si>
+    <t>S135664938</t>
+  </si>
+  <si>
+    <t>F244159335</t>
+  </si>
+  <si>
+    <t>K115606176</t>
+  </si>
+  <si>
+    <t>U263785419</t>
+  </si>
+  <si>
+    <t>M223519792</t>
+  </si>
+  <si>
+    <t>R104539721</t>
+  </si>
+  <si>
+    <t>W147653815</t>
+  </si>
+  <si>
+    <t>D290122193</t>
+  </si>
+  <si>
+    <t>I101105329</t>
+  </si>
+  <si>
+    <t>V281734626</t>
+  </si>
+  <si>
+    <t>N242484251</t>
+  </si>
+  <si>
+    <t>P125967983</t>
+  </si>
+  <si>
+    <t>H125636648</t>
+  </si>
+  <si>
+    <t>L219449857</t>
+  </si>
+  <si>
+    <t>U114858969</t>
+  </si>
+  <si>
+    <t>E136777282</t>
+  </si>
+  <si>
+    <t>P160306544</t>
+  </si>
+  <si>
+    <t>U158296556</t>
+  </si>
+  <si>
+    <t>X225513143</t>
+  </si>
+  <si>
+    <t>D278404070</t>
+  </si>
+  <si>
+    <t>A100189338</t>
+  </si>
+  <si>
+    <t>N103646395</t>
+  </si>
+  <si>
+    <t>H132417135</t>
+  </si>
+  <si>
+    <t>M144070556</t>
+  </si>
+  <si>
+    <t>N174120300</t>
+  </si>
+  <si>
+    <t>P265733785</t>
+  </si>
+  <si>
+    <t>W266686514</t>
+  </si>
+  <si>
+    <t>G119619523</t>
+  </si>
+  <si>
+    <t>L291543147</t>
+  </si>
+  <si>
+    <t>G151546669</t>
+  </si>
+  <si>
+    <t>V236182690</t>
+  </si>
+  <si>
+    <t>B146703988</t>
+  </si>
+  <si>
+    <t>A114585508</t>
+  </si>
+  <si>
+    <t>J128915101</t>
+  </si>
+  <si>
+    <t>K104784427</t>
+  </si>
+  <si>
+    <t>Q255722262</t>
+  </si>
+  <si>
+    <t>U124232379</t>
+  </si>
+  <si>
+    <t>P154187373</t>
+  </si>
+  <si>
+    <t>V149325741</t>
+  </si>
+  <si>
+    <t>H150999238</t>
+  </si>
+  <si>
+    <t>A150916894</t>
+  </si>
+  <si>
+    <t>I230931960</t>
+  </si>
+  <si>
+    <t>H144749204</t>
+  </si>
+  <si>
+    <t>B197100888</t>
+  </si>
+  <si>
+    <t>Z180642013</t>
+  </si>
+  <si>
+    <t>A238422582</t>
+  </si>
+  <si>
+    <t>O205202582</t>
+  </si>
+  <si>
+    <t>X218496128</t>
+  </si>
+  <si>
+    <t>J154726054</t>
+  </si>
+  <si>
+    <t>U211559881</t>
+  </si>
+  <si>
+    <t>X284445939</t>
+  </si>
+  <si>
+    <t>V175819607</t>
+  </si>
+  <si>
+    <t>T176216331</t>
+  </si>
+  <si>
+    <t>Z236795252</t>
+  </si>
+  <si>
+    <t>P190817452</t>
+  </si>
+  <si>
+    <t>W257258575</t>
+  </si>
+  <si>
+    <t>P247502719</t>
+  </si>
+  <si>
+    <t>I210633196</t>
+  </si>
+  <si>
+    <t>H262870455</t>
+  </si>
+  <si>
+    <t>N172171345</t>
+  </si>
+  <si>
+    <t>U281698679</t>
+  </si>
+  <si>
+    <t>I241116666</t>
+  </si>
+  <si>
+    <t>B288579840</t>
+  </si>
+  <si>
+    <t>T121996357</t>
+  </si>
+  <si>
+    <t>O144945364</t>
+  </si>
+  <si>
+    <t>B189504032</t>
+  </si>
+  <si>
+    <t>R164922573</t>
+  </si>
+  <si>
+    <t>T125564995</t>
+  </si>
+  <si>
+    <t>K248785344</t>
+  </si>
+  <si>
+    <t>Z150711210</t>
   </si>
 </sst>
 </file>
